--- a/d_backend/data.xlsx
+++ b/d_backend/data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U24"/>
+  <dimension ref="A1:V24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,95 +446,100 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>time</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t xml:space="preserve"> np.sum(y_harmonic)</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> np.sum(y_percussive)</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> np.mean(y_harmonic)*10**10</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> np.mean(y_percussive)*10**10</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> np.var(y_harmonic)*10**4</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>np.var(y_percussive)*10**4</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> np.median(y_harmonic)*10**10</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> np.median(y_percussive)*10**10</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> np.sum(mfccs)</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> np.mean(mfccs)</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> np.var(mfccs)</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> np.sum(Xdb)</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> np.mean(Xdb)</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> np.var(X)</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>np.var(Xdb)</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>np.var(zero_crossing)</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>np.mean(zero_crossing)</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>np.sum(zero_crossing)</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>np.median(zero_crossing)</t>
         </is>
@@ -550,61 +555,64 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-0.4405966103076935</v>
+        <v>28.06</v>
       </c>
       <c r="D2" t="n">
-        <v>-10.97797203063965</v>
+        <v>-0.01580616511027471</v>
       </c>
       <c r="E2" t="n">
-        <v>-7121.063845261233</v>
+        <v>-0.3884644484570939</v>
       </c>
       <c r="F2" t="n">
-        <v>-177429.5196810272</v>
+        <v>-7168.328579609806</v>
       </c>
       <c r="G2" t="n">
-        <v>2.445117279421538</v>
+        <v>-176174.3442330044</v>
       </c>
       <c r="H2" t="n">
-        <v>24.9585066922009</v>
+        <v>2.444884739816189</v>
       </c>
       <c r="I2" t="n">
-        <v>42914.63028494036</v>
+        <v>24.94796877726912</v>
       </c>
       <c r="J2" t="n">
-        <v>6306.052000581985</v>
+        <v>41964.19467916712</v>
       </c>
       <c r="K2" t="n">
-        <v>-614366.4375</v>
+        <v>6352.47488389723</v>
       </c>
       <c r="L2" t="n">
-        <v>-25.40804100036621</v>
+        <v>-20502.75302922309</v>
       </c>
       <c r="M2" t="n">
-        <v>13272.39453125</v>
+        <v>-36.6041374206543</v>
       </c>
       <c r="N2" t="n">
-        <v>-33894408</v>
+        <v>20014.052734375</v>
       </c>
       <c r="O2" t="n">
-        <v>-27.35129547119141</v>
+        <v>-1207804.989308625</v>
       </c>
       <c r="P2" t="n">
-        <v>2.400747537612915</v>
+        <v>-27.34855079650879</v>
       </c>
       <c r="Q2" t="n">
-        <v>272.9164428710938</v>
+        <v>2.399916648864746</v>
       </c>
       <c r="R2" t="n">
-        <v>4956.566959597273</v>
+        <v>272.8741455078125</v>
       </c>
       <c r="S2" t="n">
-        <v>98.70088924818108</v>
+        <v>4973.771196514895</v>
       </c>
       <c r="T2" t="n">
-        <v>122093</v>
+        <v>100.2829426030719</v>
       </c>
       <c r="U2" t="n">
-        <v>81</v>
+        <v>4420.88382038489</v>
+      </c>
+      <c r="V2" t="n">
+        <v>86</v>
       </c>
     </row>
     <row r="3">
@@ -617,61 +625,64 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-0.4731711745262146</v>
+        <v>6.04</v>
       </c>
       <c r="D3" t="n">
-        <v>-3.804018020629883</v>
+        <v>-0.0782524858484205</v>
       </c>
       <c r="E3" t="n">
-        <v>-35528.16224328126</v>
+        <v>-0.6301502913039252</v>
       </c>
       <c r="F3" t="n">
-        <v>-285625.5377992056</v>
+        <v>-35488.656067173</v>
       </c>
       <c r="G3" t="n">
-        <v>1.800458267098293</v>
+        <v>-285782.4438251555</v>
       </c>
       <c r="H3" t="n">
-        <v>3.508481022436172</v>
+        <v>1.800472964532673</v>
       </c>
       <c r="I3" t="n">
-        <v>356236.4872777835</v>
+        <v>3.508466179482639</v>
       </c>
       <c r="J3" t="n">
-        <v>6759.693178537418</v>
+        <v>355317.8248694167</v>
       </c>
       <c r="K3" t="n">
-        <v>-134770.859375</v>
+        <v>6197.501534188632</v>
       </c>
       <c r="L3" t="n">
-        <v>-25.81817245483398</v>
+        <v>-20530.96155836093</v>
       </c>
       <c r="M3" t="n">
-        <v>14475.3251953125</v>
+        <v>-36.54789352416992</v>
       </c>
       <c r="N3" t="n">
-        <v>-8741010</v>
+        <v>21883.275390625</v>
       </c>
       <c r="O3" t="n">
-        <v>-32.67361831665039</v>
+        <v>-1447152.814569536</v>
       </c>
       <c r="P3" t="n">
-        <v>0.512460470199585</v>
+        <v>-32.67284393310547</v>
       </c>
       <c r="Q3" t="n">
-        <v>271.5078735351562</v>
+        <v>0.5124603509902954</v>
       </c>
       <c r="R3" t="n">
-        <v>4342.487421561423</v>
+        <v>271.4896850585938</v>
       </c>
       <c r="S3" t="n">
-        <v>82.87218045112782</v>
+        <v>4813.018669794788</v>
       </c>
       <c r="T3" t="n">
-        <v>22044</v>
+        <v>84.27443609022556</v>
       </c>
       <c r="U3" t="n">
-        <v>52</v>
+        <v>3711.423841059603</v>
+      </c>
+      <c r="V3" t="n">
+        <v>54</v>
       </c>
     </row>
     <row r="4">
@@ -684,61 +695,64 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-6.719377517700195</v>
+        <v>19.94</v>
       </c>
       <c r="D4" t="n">
-        <v>-16.26851463317871</v>
+        <v>-0.337040938489296</v>
       </c>
       <c r="E4" t="n">
-        <v>-152825.3051219508</v>
+        <v>-0.8161000526298132</v>
       </c>
       <c r="F4" t="n">
-        <v>-370010.6026371941</v>
+        <v>-152853.0265204608</v>
       </c>
       <c r="G4" t="n">
-        <v>61.44574843347073</v>
+        <v>-370113.4119182825</v>
       </c>
       <c r="H4" t="n">
-        <v>54.47088275104761</v>
+        <v>61.44575774669647</v>
       </c>
       <c r="I4" t="n">
-        <v>658118.2969966903</v>
+        <v>54.47093397378922</v>
       </c>
       <c r="J4" t="n">
+        <v>657252.0214831457</v>
+      </c>
+      <c r="K4" t="n">
         <v>0</v>
       </c>
-      <c r="K4" t="n">
-        <v>-316050.3125</v>
-      </c>
       <c r="L4" t="n">
-        <v>-18.39640998840332</v>
+        <v>-14446.3233450351</v>
       </c>
       <c r="M4" t="n">
-        <v>10603.5166015625</v>
+        <v>-25.79561996459961</v>
       </c>
       <c r="N4" t="n">
-        <v>-24039662</v>
+        <v>16124.8251953125</v>
       </c>
       <c r="O4" t="n">
-        <v>-27.30306053161621</v>
+        <v>-1205598.595787362</v>
       </c>
       <c r="P4" t="n">
-        <v>10.97115612030029</v>
+        <v>-27.30303001403809</v>
       </c>
       <c r="Q4" t="n">
-        <v>118.292839050293</v>
+        <v>10.97116470336914</v>
       </c>
       <c r="R4" t="n">
-        <v>2151.309430899991</v>
+        <v>118.2929000854492</v>
       </c>
       <c r="S4" t="n">
-        <v>43.99658703071673</v>
+        <v>2163.103254939875</v>
       </c>
       <c r="T4" t="n">
-        <v>38673</v>
+        <v>44.03754266211604</v>
       </c>
       <c r="U4" t="n">
-        <v>22</v>
+        <v>1941.273821464393</v>
+      </c>
+      <c r="V4" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="5">
@@ -751,60 +765,63 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-21.79721450805664</v>
+        <v>27.1135</v>
       </c>
       <c r="D5" t="n">
-        <v>-142.3520660400391</v>
+        <v>-0.8039353314899059</v>
       </c>
       <c r="E5" t="n">
-        <v>-364591.5421657264</v>
+        <v>-5.250202450282782</v>
       </c>
       <c r="F5" t="n">
-        <v>-2381054.655415937</v>
+        <v>-364596.3079179637</v>
       </c>
       <c r="G5" t="n">
-        <v>134.0436935424805</v>
+        <v>-2381042.868364602</v>
       </c>
       <c r="H5" t="n">
-        <v>40.89250694960356</v>
+        <v>134.0437866747379</v>
       </c>
       <c r="I5" t="n">
-        <v>-3779210.092034191</v>
+        <v>40.89256748557091</v>
       </c>
       <c r="J5" t="n">
-        <v>-3082951.297983527</v>
+        <v>-3780198.167078197</v>
       </c>
       <c r="K5" t="n">
-        <v>-326618.84375</v>
+        <v>-3080696.042161435</v>
       </c>
       <c r="L5" t="n">
-        <v>-13.98197078704834</v>
+        <v>-9365.310408099287</v>
       </c>
       <c r="M5" t="n">
-        <v>5138.662109375</v>
+        <v>-16.7232837677002</v>
       </c>
       <c r="N5" t="n">
-        <v>-20820452</v>
+        <v>7826.44482421875</v>
       </c>
       <c r="O5" t="n">
-        <v>-17.39095497131348</v>
+        <v>-767899.0908587973</v>
       </c>
       <c r="P5" t="n">
-        <v>16.89186477661133</v>
+        <v>-17.39093971252441</v>
       </c>
       <c r="Q5" t="n">
-        <v>186.1730499267578</v>
+        <v>16.89187431335449</v>
       </c>
       <c r="R5" t="n">
-        <v>2043.679025227149</v>
+        <v>186.1728973388672</v>
       </c>
       <c r="S5" t="n">
+        <v>2043.973585896606</v>
+      </c>
+      <c r="T5" t="n">
         <v>45.66945606694561</v>
       </c>
-      <c r="T5" t="n">
-        <v>54575</v>
-      </c>
       <c r="U5" t="n">
+        <v>2012.834934626662</v>
+      </c>
+      <c r="V5" t="n">
         <v>33</v>
       </c>
     </row>
@@ -818,60 +835,63 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-138.0893707275391</v>
+        <v>54.0135</v>
       </c>
       <c r="D6" t="n">
-        <v>-156.5401153564453</v>
+        <v>-2.556647418549009</v>
       </c>
       <c r="E6" t="n">
-        <v>-1159442.472271621</v>
+        <v>-2.89809698861092</v>
       </c>
       <c r="F6" t="n">
-        <v>-1314360.852120444</v>
+        <v>-1159476.960310712</v>
       </c>
       <c r="G6" t="n">
-        <v>10.95520448870957</v>
+        <v>-1314329.274464399</v>
       </c>
       <c r="H6" t="n">
-        <v>27.06969622522593</v>
+        <v>10.95518004149199</v>
       </c>
       <c r="I6" t="n">
-        <v>-3056214.191019535</v>
+        <v>27.06973580643535</v>
       </c>
       <c r="J6" t="n">
-        <v>-466405.3994929418</v>
+        <v>-3057633.875869215</v>
       </c>
       <c r="K6" t="n">
-        <v>-842211.5</v>
+        <v>-466842.2479880974</v>
       </c>
       <c r="L6" t="n">
-        <v>-18.09650802612305</v>
+        <v>-14545.99081711054</v>
       </c>
       <c r="M6" t="n">
-        <v>10095.0439453125</v>
+        <v>-25.97203063964844</v>
       </c>
       <c r="N6" t="n">
-        <v>-59136512</v>
+        <v>15307.3662109375</v>
       </c>
       <c r="O6" t="n">
-        <v>-24.79336357116699</v>
+        <v>-1094843.770538847</v>
       </c>
       <c r="P6" t="n">
-        <v>3.810086488723755</v>
+        <v>-24.79329299926758</v>
       </c>
       <c r="Q6" t="n">
-        <v>200.3832397460938</v>
+        <v>3.810088634490967</v>
       </c>
       <c r="R6" t="n">
-        <v>4575.957745070214</v>
+        <v>200.382568359375</v>
       </c>
       <c r="S6" t="n">
-        <v>60.20453590928182</v>
+        <v>4573.223223683362</v>
       </c>
       <c r="T6" t="n">
-        <v>143347</v>
+        <v>60.17807643847123</v>
       </c>
       <c r="U6" t="n">
+        <v>2652.744221352069</v>
+      </c>
+      <c r="V6" t="n">
         <v>33</v>
       </c>
     </row>
@@ -885,60 +905,63 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-488.5731811523438</v>
+        <v>134.0935</v>
       </c>
       <c r="D7" t="n">
-        <v>-287.8655090332031</v>
+        <v>-3.643514370482396</v>
       </c>
       <c r="E7" t="n">
-        <v>-1652392.675168812</v>
+        <v>-2.146786057134341</v>
       </c>
       <c r="F7" t="n">
-        <v>-973583.6647450924</v>
+        <v>-1652387.290960178</v>
       </c>
       <c r="G7" t="n">
-        <v>2.130443317582831</v>
+        <v>-973599.0170156583</v>
       </c>
       <c r="H7" t="n">
-        <v>4.323312605265528</v>
+        <v>2.130444627255201</v>
       </c>
       <c r="I7" t="n">
-        <v>-1898278.569569811</v>
+        <v>4.323314351495355</v>
       </c>
       <c r="J7" t="n">
-        <v>-130233.6841035867</v>
+        <v>-1898533.519124612</v>
       </c>
       <c r="K7" t="n">
-        <v>-2276586.5</v>
+        <v>-130007.629195461</v>
       </c>
       <c r="L7" t="n">
-        <v>-19.7107048034668</v>
+        <v>-15929.06442146711</v>
       </c>
       <c r="M7" t="n">
-        <v>11489.1318359375</v>
+        <v>-28.45133590698242</v>
       </c>
       <c r="N7" t="n">
-        <v>-178799760</v>
+        <v>17427.181640625</v>
       </c>
       <c r="O7" t="n">
-        <v>-30.20585060119629</v>
+        <v>-1333392.476145376</v>
       </c>
       <c r="P7" t="n">
-        <v>0.6761161088943481</v>
+        <v>-30.20576667785645</v>
       </c>
       <c r="Q7" t="n">
-        <v>186.0506896972656</v>
+        <v>0.6761162877082825</v>
       </c>
       <c r="R7" t="n">
-        <v>2729.081546509168</v>
+        <v>186.0498657226562</v>
       </c>
       <c r="S7" t="n">
-        <v>62.91391848469474</v>
+        <v>2728.846362280693</v>
       </c>
       <c r="T7" t="n">
-        <v>372010</v>
+        <v>62.93438187045493</v>
       </c>
       <c r="U7" t="n">
+        <v>2775.160615540649</v>
+      </c>
+      <c r="V7" t="n">
         <v>39</v>
       </c>
     </row>
@@ -952,60 +975,63 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.4452964067459106</v>
+        <v>25.7535</v>
       </c>
       <c r="D8" t="n">
-        <v>0.01338965818285942</v>
+        <v>0.01731294192068393</v>
       </c>
       <c r="E8" t="n">
-        <v>7841.589422241668</v>
+        <v>0.000791120763973617</v>
       </c>
       <c r="F8" t="n">
-        <v>235.7894679505534</v>
+        <v>7851.670034142444</v>
       </c>
       <c r="G8" t="n">
-        <v>9.320914978161454</v>
+        <v>358.7847174912895</v>
       </c>
       <c r="H8" t="n">
-        <v>6.915206322446465</v>
+        <v>9.320949320681393</v>
       </c>
       <c r="I8" t="n">
-        <v>366987.8424261697</v>
+        <v>6.915170815773308</v>
       </c>
       <c r="J8" t="n">
-        <v>-111029.9581341678</v>
+        <v>366096.2102003396</v>
       </c>
       <c r="K8" t="n">
-        <v>-339732.03125</v>
+        <v>-110672.4539567949</v>
       </c>
       <c r="L8" t="n">
-        <v>-15.30324459075928</v>
+        <v>-13140.65442561205</v>
       </c>
       <c r="M8" t="n">
-        <v>13153.8837890625</v>
+        <v>-23.45237922668457</v>
       </c>
       <c r="N8" t="n">
-        <v>-37657180</v>
+        <v>20017.046875</v>
       </c>
       <c r="O8" t="n">
-        <v>-33.09793853759766</v>
+        <v>-1462203.273341488</v>
       </c>
       <c r="P8" t="n">
-        <v>1.588517427444458</v>
+        <v>-33.09765243530273</v>
       </c>
       <c r="Q8" t="n">
-        <v>168.3286743164062</v>
+        <v>1.588518738746643</v>
       </c>
       <c r="R8" t="n">
-        <v>1086.995349414892</v>
+        <v>168.3248748779297</v>
       </c>
       <c r="S8" t="n">
-        <v>32.94625550660793</v>
+        <v>1088.792051078034</v>
       </c>
       <c r="T8" t="n">
-        <v>37394</v>
+        <v>33.00440528634361</v>
       </c>
       <c r="U8" t="n">
+        <v>1454.559574426777</v>
+      </c>
+      <c r="V8" t="n">
         <v>22</v>
       </c>
     </row>
@@ -1019,61 +1045,64 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-83.32628631591797</v>
+        <v>30.0935</v>
       </c>
       <c r="D9" t="n">
-        <v>-89.59761047363281</v>
+        <v>-2.768851998997655</v>
       </c>
       <c r="E9" t="n">
-        <v>-1255742.245120928</v>
+        <v>-2.977233964803836</v>
       </c>
       <c r="F9" t="n">
-        <v>-1350252.277916297</v>
+        <v>-1255714.596481994</v>
       </c>
       <c r="G9" t="n">
-        <v>15.48685482703149</v>
+        <v>-1350218.808511272</v>
       </c>
       <c r="H9" t="n">
-        <v>20.45278903096914</v>
+        <v>15.48684551380575</v>
       </c>
       <c r="I9" t="n">
-        <v>-2938300.604000688</v>
+        <v>20.45279368758202</v>
       </c>
       <c r="J9" t="n">
-        <v>-244260.5727992486</v>
+        <v>-2939411.788247526</v>
       </c>
       <c r="K9" t="n">
-        <v>-474861.0625</v>
+        <v>-244392.8678985685</v>
       </c>
       <c r="L9" t="n">
-        <v>-18.30613136291504</v>
+        <v>-14244.33951683919</v>
       </c>
       <c r="M9" t="n">
-        <v>8838.26953125</v>
+        <v>-25.42328643798828</v>
       </c>
       <c r="N9" t="n">
-        <v>-32064856</v>
+        <v>13425.462890625</v>
       </c>
       <c r="O9" t="n">
-        <v>-24.11934089660645</v>
+        <v>-1065508.963729709</v>
       </c>
       <c r="P9" t="n">
-        <v>3.770256280899048</v>
+        <v>-24.11936950683594</v>
       </c>
       <c r="Q9" t="n">
-        <v>183.2507476806641</v>
+        <v>3.770256996154785</v>
       </c>
       <c r="R9" t="n">
-        <v>3048.373850393741</v>
+        <v>183.2508392333984</v>
       </c>
       <c r="S9" t="n">
-        <v>62.62773172569706</v>
+        <v>3050.548308307717</v>
       </c>
       <c r="T9" t="n">
-        <v>83107</v>
+        <v>62.62321024868124</v>
       </c>
       <c r="U9" t="n">
-        <v>42</v>
+        <v>2761.426886204662</v>
+      </c>
+      <c r="V9" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="10">
@@ -1086,60 +1115,63 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>-69.39144134521484</v>
+        <v>22.9335</v>
       </c>
       <c r="D10" t="n">
-        <v>-52.06141662597656</v>
+        <v>-3.025555024837438</v>
       </c>
       <c r="E10" t="n">
-        <v>-1372229.307889938</v>
+        <v>-2.270094430955773</v>
       </c>
       <c r="F10" t="n">
-        <v>-1029524.719342589</v>
+        <v>-1372132.974211127</v>
       </c>
       <c r="G10" t="n">
-        <v>8.29881988465786</v>
+        <v>-1029520.644806325</v>
       </c>
       <c r="H10" t="n">
-        <v>7.418792229145765</v>
+        <v>8.298819302581251</v>
       </c>
       <c r="I10" t="n">
-        <v>-2295870.071975514</v>
+        <v>7.418782915920019</v>
       </c>
       <c r="J10" t="n">
-        <v>-81106.88213491812</v>
+        <v>-2296584.425494075</v>
       </c>
       <c r="K10" t="n">
-        <v>-393168.40625</v>
+        <v>-81635.29855664819</v>
       </c>
       <c r="L10" t="n">
-        <v>-19.89718627929688</v>
+        <v>-16952.02841912486</v>
       </c>
       <c r="M10" t="n">
-        <v>14793.515625</v>
+        <v>-30.26855659484863</v>
       </c>
       <c r="N10" t="n">
-        <v>-34338224</v>
+        <v>22422.615234375</v>
       </c>
       <c r="O10" t="n">
-        <v>-33.90759658813477</v>
+        <v>-1497290.513877079</v>
       </c>
       <c r="P10" t="n">
-        <v>1.616294860839844</v>
+        <v>-33.90748596191406</v>
       </c>
       <c r="Q10" t="n">
-        <v>183.8504180908203</v>
+        <v>1.616295337677002</v>
       </c>
       <c r="R10" t="n">
-        <v>4434.380058721032</v>
+        <v>183.8486938476562</v>
       </c>
       <c r="S10" t="n">
-        <v>45.20079129574678</v>
+        <v>4427.586295556006</v>
       </c>
       <c r="T10" t="n">
-        <v>45698</v>
+        <v>45.14836795252226</v>
       </c>
       <c r="U10" t="n">
+        <v>1990.319837791877</v>
+      </c>
+      <c r="V10" t="n">
         <v>17</v>
       </c>
     </row>
@@ -1153,60 +1185,63 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>-69.24222564697266</v>
+        <v>21.0135</v>
       </c>
       <c r="D11" t="n">
-        <v>-50.47552108764648</v>
+        <v>-3.294942834368382</v>
       </c>
       <c r="E11" t="n">
-        <v>-1494389.289291576</v>
+        <v>-2.402052973618522</v>
       </c>
       <c r="F11" t="n">
-        <v>-1089365.250663832</v>
+        <v>-1494304.16058749</v>
       </c>
       <c r="G11" t="n">
-        <v>3.167651884723455</v>
+        <v>-1089365.687221289</v>
       </c>
       <c r="H11" t="n">
-        <v>5.189126241020858</v>
+        <v>3.167646937072277</v>
       </c>
       <c r="I11" t="n">
-        <v>-2969463.239423931</v>
+        <v>5.189139046706259</v>
       </c>
       <c r="J11" t="n">
-        <v>-500665.046274662</v>
+        <v>-2969761.844724417</v>
       </c>
       <c r="K11" t="n">
-        <v>-380802</v>
+        <v>-502941.9116908684</v>
       </c>
       <c r="L11" t="n">
-        <v>-21.03878402709961</v>
+        <v>-16067.51760772836</v>
       </c>
       <c r="M11" t="n">
-        <v>12119.5302734375</v>
+        <v>-28.69823837280273</v>
       </c>
       <c r="N11" t="n">
-        <v>-28532032</v>
+        <v>18436.001953125</v>
       </c>
       <c r="O11" t="n">
-        <v>-30.75815391540527</v>
+        <v>-1357783.424941109</v>
       </c>
       <c r="P11" t="n">
-        <v>0.8708321452140808</v>
+        <v>-30.75788307189941</v>
       </c>
       <c r="Q11" t="n">
-        <v>220.4888153076172</v>
+        <v>0.8708328008651733</v>
       </c>
       <c r="R11" t="n">
-        <v>4819.389543264185</v>
+        <v>220.4846496582031</v>
       </c>
       <c r="S11" t="n">
-        <v>62.37365010799136</v>
+        <v>4825.175934953281</v>
       </c>
       <c r="T11" t="n">
-        <v>57758</v>
+        <v>62.39308855291576</v>
       </c>
       <c r="U11" t="n">
+        <v>2749.470578437671</v>
+      </c>
+      <c r="V11" t="n">
         <v>31</v>
       </c>
     </row>
@@ -1220,60 +1255,63 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>-1.403913855552673</v>
+        <v>29.5935</v>
       </c>
       <c r="D12" t="n">
-        <v>-14.01302433013916</v>
+        <v>-0.04741732927198286</v>
       </c>
       <c r="E12" t="n">
-        <v>-21514.7019844153</v>
+        <v>-0.4733970859033953</v>
       </c>
       <c r="F12" t="n">
-        <v>-214746.8148905318</v>
+        <v>-21504.44743165281</v>
       </c>
       <c r="G12" t="n">
-        <v>25.50214994698763</v>
+        <v>-214692.4452972598</v>
       </c>
       <c r="H12" t="n">
-        <v>28.02337752655149</v>
+        <v>25.50212666392326</v>
       </c>
       <c r="I12" t="n">
-        <v>1470311.108278111</v>
+        <v>28.02340779453516</v>
       </c>
       <c r="J12" t="n">
-        <v>55533.98750635097</v>
+        <v>1470768.766012043</v>
       </c>
       <c r="K12" t="n">
-        <v>-503317.4375</v>
+        <v>55606.34235735051</v>
       </c>
       <c r="L12" t="n">
-        <v>-19.73793792724609</v>
+        <v>-15188.48733674625</v>
       </c>
       <c r="M12" t="n">
-        <v>9625.982421875</v>
+        <v>-27.11797904968262</v>
       </c>
       <c r="N12" t="n">
-        <v>-34239432</v>
+        <v>14619.0908203125</v>
       </c>
       <c r="O12" t="n">
-        <v>-26.19947052001953</v>
+        <v>-1156990.420193624</v>
       </c>
       <c r="P12" t="n">
-        <v>5.755707263946533</v>
+        <v>-26.19944190979004</v>
       </c>
       <c r="Q12" t="n">
-        <v>202.3235168457031</v>
+        <v>5.755710124969482</v>
       </c>
       <c r="R12" t="n">
-        <v>3036.780232821009</v>
+        <v>202.3234405517578</v>
       </c>
       <c r="S12" t="n">
-        <v>53.21226053639847</v>
+        <v>3025.465198690566</v>
       </c>
       <c r="T12" t="n">
-        <v>69442</v>
+        <v>53.0727969348659</v>
       </c>
       <c r="U12" t="n">
+        <v>2340.378799398517</v>
+      </c>
+      <c r="V12" t="n">
         <v>26</v>
       </c>
     </row>
@@ -1287,60 +1325,63 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>-134.0158538818359</v>
+        <v>46.6735</v>
       </c>
       <c r="D13" t="n">
-        <v>-140.8754119873047</v>
+        <v>-2.874887479855071</v>
       </c>
       <c r="E13" t="n">
-        <v>-1302198.215853423</v>
+        <v>-3.020500073503467</v>
       </c>
       <c r="F13" t="n">
-        <v>-1368850.789731368</v>
+        <v>-1303803.437622264</v>
       </c>
       <c r="G13" t="n">
-        <v>6.547813536599278</v>
+        <v>-1369840.902043507</v>
       </c>
       <c r="H13" t="n">
-        <v>25.17868299037218</v>
+        <v>6.547885714098811</v>
       </c>
       <c r="I13" t="n">
-        <v>-1879663.032013923</v>
+        <v>25.13338578864932</v>
       </c>
       <c r="J13" t="n">
-        <v>-1079217.836377211</v>
+        <v>-1881865.318864584</v>
       </c>
       <c r="K13" t="n">
-        <v>-720712.125</v>
+        <v>-1078981.949831359</v>
       </c>
       <c r="L13" t="n">
-        <v>-17.91924667358398</v>
+        <v>-14517.19792816052</v>
       </c>
       <c r="M13" t="n">
-        <v>8842.7861328125</v>
+        <v>-25.91777610778809</v>
       </c>
       <c r="N13" t="n">
-        <v>-43667900</v>
+        <v>13359.07421875</v>
       </c>
       <c r="O13" t="n">
-        <v>-21.18489837646484</v>
+        <v>-935542.6955338683</v>
       </c>
       <c r="P13" t="n">
-        <v>2.868188381195068</v>
+        <v>-21.18351554870605</v>
       </c>
       <c r="Q13" t="n">
-        <v>187.0091247558594</v>
+        <v>2.86476731300354</v>
       </c>
       <c r="R13" t="n">
-        <v>12425.48467522508</v>
+        <v>187.0039520263672</v>
       </c>
       <c r="S13" t="n">
-        <v>147.0563654033042</v>
+        <v>12420.76092916689</v>
       </c>
       <c r="T13" t="n">
-        <v>302642</v>
+        <v>147.0019436345967</v>
       </c>
       <c r="U13" t="n">
+        <v>6481.836588213869</v>
+      </c>
+      <c r="V13" t="n">
         <v>136</v>
       </c>
     </row>
@@ -1354,60 +1395,63 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>-92.50669860839844</v>
+        <v>34.7335</v>
       </c>
       <c r="D14" t="n">
-        <v>-105.8794250488281</v>
+        <v>-2.66326482998166</v>
       </c>
       <c r="E14" t="n">
-        <v>-1207857.931149192</v>
+        <v>-3.048489342848943</v>
       </c>
       <c r="F14" t="n">
-        <v>-1382465.270580724</v>
+        <v>-1207829.336635768</v>
       </c>
       <c r="G14" t="n">
-        <v>4.938020138069987</v>
+        <v>-1382534.246658906</v>
       </c>
       <c r="H14" t="n">
-        <v>5.868237349204719</v>
+        <v>4.938037600368261</v>
       </c>
       <c r="I14" t="n">
-        <v>-4349905.648268759</v>
+        <v>5.868241423740983</v>
       </c>
       <c r="J14" t="n">
-        <v>-1023351.505864412</v>
+        <v>-4350203.089416027</v>
       </c>
       <c r="K14" t="n">
-        <v>-572333</v>
+        <v>-1023382.355924696</v>
       </c>
       <c r="L14" t="n">
-        <v>-19.12877655029297</v>
+        <v>-14915.27541854406</v>
       </c>
       <c r="M14" t="n">
-        <v>12165.091796875</v>
+        <v>-26.6382007598877</v>
       </c>
       <c r="N14" t="n">
-        <v>-48358236</v>
+        <v>18527.3984375</v>
       </c>
       <c r="O14" t="n">
-        <v>-31.5366096496582</v>
+        <v>-1392259.576489556</v>
       </c>
       <c r="P14" t="n">
-        <v>1.126388430595398</v>
+        <v>-31.53648567199707</v>
       </c>
       <c r="Q14" t="n">
-        <v>151.9228210449219</v>
+        <v>1.126389861106873</v>
       </c>
       <c r="R14" t="n">
-        <v>3447.641551203284</v>
+        <v>151.9209442138672</v>
       </c>
       <c r="S14" t="n">
-        <v>41.80404964075768</v>
+        <v>3445.976563603233</v>
       </c>
       <c r="T14" t="n">
-        <v>64002</v>
+        <v>41.74330502939255</v>
       </c>
       <c r="U14" t="n">
+        <v>1839.98157398477</v>
+      </c>
+      <c r="V14" t="n">
         <v>20</v>
       </c>
     </row>
@@ -1421,60 +1465,63 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>22.67040252685547</v>
+        <v>44.78</v>
       </c>
       <c r="D15" t="n">
-        <v>-57.43445205688477</v>
+        <v>0.5062521116283122</v>
       </c>
       <c r="E15" t="n">
-        <v>229597.1717103384</v>
+        <v>-1.282583171099943</v>
       </c>
       <c r="F15" t="n">
-        <v>-581674.2122988217</v>
+        <v>229592.7879458759</v>
       </c>
       <c r="G15" t="n">
-        <v>5.273374263197184</v>
+        <v>-581670.3560412861</v>
       </c>
       <c r="H15" t="n">
-        <v>10.91404817998409</v>
+        <v>5.273375427350402</v>
       </c>
       <c r="I15" t="n">
-        <v>-5861253.594048321</v>
+        <v>10.914042359218</v>
       </c>
       <c r="J15" t="n">
-        <v>-927044.0932596102</v>
+        <v>-5862861.289642751</v>
       </c>
       <c r="K15" t="n">
-        <v>-388285.15625</v>
+        <v>-928098.7433157861</v>
       </c>
       <c r="L15" t="n">
-        <v>-10.06441593170166</v>
+        <v>-9642.644595801698</v>
       </c>
       <c r="M15" t="n">
-        <v>10688.833984375</v>
+        <v>-17.21887016296387</v>
       </c>
       <c r="N15" t="n">
-        <v>-49745412</v>
+        <v>16272.201171875</v>
       </c>
       <c r="O15" t="n">
-        <v>-25.15920639038086</v>
+        <v>-1110884.144707459</v>
       </c>
       <c r="P15" t="n">
-        <v>1.647397994995117</v>
+        <v>-25.1591968536377</v>
       </c>
       <c r="Q15" t="n">
-        <v>107.6587524414062</v>
+        <v>1.647398352622986</v>
       </c>
       <c r="R15" t="n">
-        <v>2117.90955804383</v>
+        <v>107.6587677001953</v>
       </c>
       <c r="S15" t="n">
-        <v>29.82928064842958</v>
+        <v>2114.944286104362</v>
       </c>
       <c r="T15" t="n">
-        <v>58883</v>
+        <v>29.7806484295846</v>
       </c>
       <c r="U15" t="n">
+        <v>1312.795891022778</v>
+      </c>
+      <c r="V15" t="n">
         <v>15</v>
       </c>
     </row>
@@ -1488,60 +1535,63 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>-57.34898376464844</v>
+        <v>30.5735</v>
       </c>
       <c r="D16" t="n">
-        <v>-126.1880874633789</v>
+        <v>-1.8759197246524</v>
       </c>
       <c r="E16" t="n">
-        <v>-850690.8488925546</v>
+        <v>-4.127466132939627</v>
       </c>
       <c r="F16" t="n">
-        <v>-1871821.295935661</v>
+        <v>-850756.8418281153</v>
       </c>
       <c r="G16" t="n">
-        <v>19.47785727679729</v>
+        <v>-1871865.824796259</v>
       </c>
       <c r="H16" t="n">
-        <v>15.35478397272527</v>
+        <v>19.47786193341017</v>
       </c>
       <c r="I16" t="n">
-        <v>-2175026.020267978</v>
+        <v>15.35476185381413</v>
       </c>
       <c r="J16" t="n">
-        <v>-266210.8454387635</v>
+        <v>-2176885.463995859</v>
       </c>
       <c r="K16" t="n">
-        <v>-354375.65625</v>
+        <v>-266680.472122971</v>
       </c>
       <c r="L16" t="n">
-        <v>-13.45389747619629</v>
+        <v>-11873.42183590364</v>
       </c>
       <c r="M16" t="n">
-        <v>10488.5673828125</v>
+        <v>-21.20273780822754</v>
       </c>
       <c r="N16" t="n">
-        <v>-35833836</v>
+        <v>15923.3466796875</v>
       </c>
       <c r="O16" t="n">
-        <v>-26.54505729675293</v>
+        <v>-1172053.575809116</v>
       </c>
       <c r="P16" t="n">
-        <v>3.557092428207397</v>
+        <v>-26.54501533508301</v>
       </c>
       <c r="Q16" t="n">
-        <v>223.7005157470703</v>
+        <v>3.55709433555603</v>
       </c>
       <c r="R16" t="n">
-        <v>4010.570567232256</v>
+        <v>223.6999206542969</v>
       </c>
       <c r="S16" t="n">
-        <v>53.25964391691394</v>
+        <v>4001.104410094305</v>
       </c>
       <c r="T16" t="n">
-        <v>71794</v>
+        <v>53.16172106824926</v>
       </c>
       <c r="U16" t="n">
+        <v>2343.925294781428</v>
+      </c>
+      <c r="V16" t="n">
         <v>22</v>
       </c>
     </row>
@@ -1555,60 +1605,63 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>-1.302197933197021</v>
+        <v>37.2735</v>
       </c>
       <c r="D17" t="n">
-        <v>-14.56842708587646</v>
+        <v>-0.03494796377841073</v>
       </c>
       <c r="E17" t="n">
-        <v>-15844.11734256719</v>
+        <v>-0.3908728859846022</v>
       </c>
       <c r="F17" t="n">
-        <v>-177257.1340552531</v>
+        <v>-15849.41060173151</v>
       </c>
       <c r="G17" t="n">
-        <v>15.01522841863334</v>
+        <v>-177266.5382304695</v>
       </c>
       <c r="H17" t="n">
-        <v>3.897288115695119</v>
+        <v>15.01531922258437</v>
       </c>
       <c r="I17" t="n">
-        <v>631310.8315225691</v>
+        <v>3.897263668477535</v>
       </c>
       <c r="J17" t="n">
-        <v>-141521.9503542176</v>
+        <v>631908.3331618458</v>
       </c>
       <c r="K17" t="n">
-        <v>-607967.25</v>
+        <v>-142453.6185368197</v>
       </c>
       <c r="L17" t="n">
-        <v>-18.9279956817627</v>
+        <v>-14939.6253370357</v>
       </c>
       <c r="M17" t="n">
-        <v>10370.0791015625</v>
+        <v>-26.67171859741211</v>
       </c>
       <c r="N17" t="n">
-        <v>-44986356</v>
+        <v>15746.9677734375</v>
       </c>
       <c r="O17" t="n">
-        <v>-27.32822418212891</v>
+        <v>-1206922.451607711</v>
       </c>
       <c r="P17" t="n">
-        <v>1.749135136604309</v>
+        <v>-27.32814407348633</v>
       </c>
       <c r="Q17" t="n">
-        <v>150.5423583984375</v>
+        <v>1.749135971069336</v>
       </c>
       <c r="R17" t="n">
-        <v>4574.163493364757</v>
+        <v>150.5413665771484</v>
       </c>
       <c r="S17" t="n">
-        <v>59.69446135118685</v>
+        <v>4576.040993550907</v>
       </c>
       <c r="T17" t="n">
-        <v>98078</v>
+        <v>59.7084601339014</v>
       </c>
       <c r="U17" t="n">
+        <v>2631.923484513126</v>
+      </c>
+      <c r="V17" t="n">
         <v>29</v>
       </c>
     </row>
@@ -1622,60 +1675,63 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>-13.50806617736816</v>
+        <v>2.5735</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.5563793778419495</v>
+        <v>-5.248780710988538</v>
       </c>
       <c r="E18" t="n">
-        <v>-2380443.76601465</v>
+        <v>-0.2162646895268368</v>
       </c>
       <c r="F18" t="n">
-        <v>-98047.33053897507</v>
+        <v>-2380385.849392042</v>
       </c>
       <c r="G18" t="n">
-        <v>0.1739443723636214</v>
+        <v>-98078.66263145115</v>
       </c>
       <c r="H18" t="n">
-        <v>0.1723365312500391</v>
+        <v>0.1738507125992328</v>
       </c>
       <c r="I18" t="n">
-        <v>-2319326.740689576</v>
+        <v>0.1723604327708017</v>
       </c>
       <c r="J18" t="n">
-        <v>-38166.55862465268</v>
+        <v>-2320858.184248209</v>
       </c>
       <c r="K18" t="n">
-        <v>-65949.2734375</v>
+        <v>-39256.74718630034</v>
       </c>
       <c r="L18" t="n">
-        <v>-29.70688056945801</v>
+        <v>-24326.84998542841</v>
       </c>
       <c r="M18" t="n">
-        <v>19633.53515625</v>
+        <v>-43.38541030883789</v>
       </c>
       <c r="N18" t="n">
-        <v>-4994726.5</v>
+        <v>29645.123046875</v>
       </c>
       <c r="O18" t="n">
-        <v>-43.9000358581543</v>
+        <v>-1940557.994948514</v>
       </c>
       <c r="P18" t="n">
-        <v>0.03664883598685265</v>
+        <v>-43.89387893676758</v>
       </c>
       <c r="Q18" t="n">
-        <v>177.1947326660156</v>
+        <v>0.03664913401007652</v>
       </c>
       <c r="R18" t="n">
-        <v>2399.070248257498</v>
+        <v>177.0949096679688</v>
       </c>
       <c r="S18" t="n">
-        <v>63.28318584070797</v>
+        <v>2433.934215678596</v>
       </c>
       <c r="T18" t="n">
-        <v>7151</v>
+        <v>63.06194690265487</v>
       </c>
       <c r="U18" t="n">
+        <v>2768.991645618807</v>
+      </c>
+      <c r="V18" t="n">
         <v>47</v>
       </c>
     </row>
@@ -1689,60 +1745,63 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>-0.0225498303771019</v>
+        <v>26.88</v>
       </c>
       <c r="D19" t="n">
-        <v>-1.510718703269958</v>
+        <v>-0.0008304445405623743</v>
       </c>
       <c r="E19" t="n">
-        <v>-380.4568748932979</v>
+        <v>-0.0560916250660306</v>
       </c>
       <c r="F19" t="n">
-        <v>-25488.58674344956</v>
+        <v>-376.618842778953</v>
       </c>
       <c r="G19" t="n">
-        <v>19.23190895467997</v>
+        <v>-25438.37808843818</v>
       </c>
       <c r="H19" t="n">
-        <v>12.53544236533344</v>
+        <v>19.23201023600996</v>
       </c>
       <c r="I19" t="n">
-        <v>-1128186.704590917</v>
+        <v>12.53530150279403</v>
       </c>
       <c r="J19" t="n">
-        <v>-208650.8175125346</v>
+        <v>-1124483.605963178</v>
       </c>
       <c r="K19" t="n">
-        <v>-463847.5625</v>
+        <v>-208738.2017634809</v>
       </c>
       <c r="L19" t="n">
-        <v>-20.0279598236084</v>
+        <v>-14196.96800595238</v>
       </c>
       <c r="M19" t="n">
-        <v>9260.7158203125</v>
+        <v>-25.34970855712891</v>
       </c>
       <c r="N19" t="n">
-        <v>-31461138</v>
+        <v>14096.78125</v>
       </c>
       <c r="O19" t="n">
-        <v>-26.50586700439453</v>
+        <v>-1170425.223214286</v>
       </c>
       <c r="P19" t="n">
-        <v>3.164631366729736</v>
+        <v>-26.50577545166016</v>
       </c>
       <c r="Q19" t="n">
-        <v>179.356201171875</v>
+        <v>3.164632081985474</v>
       </c>
       <c r="R19" t="n">
-        <v>5625.170937705851</v>
+        <v>179.3547973632812</v>
       </c>
       <c r="S19" t="n">
-        <v>59.75105485232068</v>
+        <v>5613.188994641172</v>
       </c>
       <c r="T19" t="n">
-        <v>70805</v>
+        <v>59.60590717299578</v>
       </c>
       <c r="U19" t="n">
+        <v>2627.715773809524</v>
+      </c>
+      <c r="V19" t="n">
         <v>31</v>
       </c>
     </row>
@@ -1756,61 +1815,64 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>-118.1210784912109</v>
+        <v>31.0135</v>
       </c>
       <c r="D20" t="n">
-        <v>-58.82696914672852</v>
+        <v>-3.80876172041888</v>
       </c>
       <c r="E20" t="n">
-        <v>-1727300.259517506</v>
+        <v>-1.896709399272759</v>
       </c>
       <c r="F20" t="n">
-        <v>-860234.5769759268</v>
+        <v>-1727328.781271353</v>
       </c>
       <c r="G20" t="n">
-        <v>44.93506159633398</v>
+        <v>-860185.2459833026</v>
       </c>
       <c r="H20" t="n">
-        <v>13.66382581181824</v>
+        <v>44.93504296988249</v>
       </c>
       <c r="I20" t="n">
-        <v>-2718242.46738106</v>
+        <v>13.66386190056801</v>
       </c>
       <c r="J20" t="n">
-        <v>-680966.6228946298</v>
+        <v>-2723617.36278981</v>
       </c>
       <c r="K20" t="n">
-        <v>-552104.6875</v>
+        <v>-681394.0854044631</v>
       </c>
       <c r="L20" t="n">
-        <v>-20.66260147094727</v>
+        <v>-16270.78631080013</v>
       </c>
       <c r="M20" t="n">
-        <v>7072.03955078125</v>
+        <v>-29.05423927307129</v>
       </c>
       <c r="N20" t="n">
-        <v>-31334480</v>
+        <v>10622.40625</v>
       </c>
       <c r="O20" t="n">
-        <v>-22.88190460205078</v>
+        <v>-1010348.525642059</v>
       </c>
       <c r="P20" t="n">
-        <v>5.749039173126221</v>
+        <v>-22.88187789916992</v>
       </c>
       <c r="Q20" t="n">
-        <v>175.1444396972656</v>
+        <v>5.749042510986328</v>
       </c>
       <c r="R20" t="n">
-        <v>3496.706274826898</v>
+        <v>175.1441040039062</v>
       </c>
       <c r="S20" t="n">
-        <v>53.41331382589613</v>
+        <v>3497.038858793518</v>
       </c>
       <c r="T20" t="n">
-        <v>73016</v>
+        <v>53.40014630577908</v>
       </c>
       <c r="U20" t="n">
-        <v>27</v>
+        <v>2353.749173746917</v>
+      </c>
+      <c r="V20" t="n">
+        <v>28</v>
       </c>
     </row>
     <row r="21">
@@ -1823,60 +1885,63 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>-34.23651123046875</v>
+        <v>7.6935</v>
       </c>
       <c r="D21" t="n">
-        <v>-6.255416870117188</v>
+        <v>-4.450267926366921</v>
       </c>
       <c r="E21" t="n">
-        <v>-2018162.48591058</v>
+        <v>-0.813110271237426</v>
       </c>
       <c r="F21" t="n">
-        <v>-368742.2213261016</v>
+        <v>-2018258.237512782</v>
       </c>
       <c r="G21" t="n">
-        <v>2.992176450788975</v>
+        <v>-368756.7732413299</v>
       </c>
       <c r="H21" t="n">
-        <v>5.665603093802929</v>
+        <v>2.992056543007493</v>
       </c>
       <c r="I21" t="n">
-        <v>-2306105.161551386</v>
+        <v>5.66566304769367</v>
       </c>
       <c r="J21" t="n">
-        <v>-25025.44703020249</v>
+        <v>-2306235.837750137</v>
       </c>
       <c r="K21" t="n">
-        <v>-190193.4375</v>
+        <v>-24575.96337990253</v>
       </c>
       <c r="L21" t="n">
-        <v>-28.64359092712402</v>
+        <v>-23763.59304932735</v>
       </c>
       <c r="M21" t="n">
-        <v>19623.0234375</v>
+        <v>-42.35987091064453</v>
       </c>
       <c r="N21" t="n">
-        <v>-13193268</v>
+        <v>29619.669921875</v>
       </c>
       <c r="O21" t="n">
-        <v>-38.7695198059082</v>
+        <v>-1714859.816728407</v>
       </c>
       <c r="P21" t="n">
-        <v>0.8380657434463501</v>
+        <v>-38.76953887939453</v>
       </c>
       <c r="Q21" t="n">
-        <v>94.48720550537109</v>
+        <v>0.8380641937255859</v>
       </c>
       <c r="R21" t="n">
-        <v>3194.79559001401</v>
+        <v>94.48743438720703</v>
       </c>
       <c r="S21" t="n">
-        <v>28.69616519174041</v>
+        <v>3130.794476205394</v>
       </c>
       <c r="T21" t="n">
-        <v>9728</v>
+        <v>28.1504424778761</v>
       </c>
       <c r="U21" t="n">
+        <v>1240.397738350556</v>
+      </c>
+      <c r="V21" t="n">
         <v>10</v>
       </c>
     </row>
@@ -1890,60 +1955,63 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>-17.26626014709473</v>
+        <v>3.8135</v>
       </c>
       <c r="D22" t="n">
-        <v>-7.06920051574707</v>
+        <v>-4.526757249923432</v>
       </c>
       <c r="E22" t="n">
-        <v>-2053356.00185208</v>
+        <v>-1.853131491437377</v>
       </c>
       <c r="F22" t="n">
-        <v>-840690.7727476209</v>
+        <v>-2052943.164017051</v>
       </c>
       <c r="G22" t="n">
-        <v>11.5090433973819</v>
+        <v>-840419.1612498835</v>
       </c>
       <c r="H22" t="n">
-        <v>8.488469175063074</v>
+        <v>11.50900614447892</v>
       </c>
       <c r="I22" t="n">
-        <v>-2258940.949104726</v>
+        <v>8.488587918691337</v>
       </c>
       <c r="J22" t="n">
-        <v>-59986.10959068174</v>
+        <v>-2259019.238408655</v>
       </c>
       <c r="K22" t="n">
-        <v>-87539.734375</v>
+        <v>-59418.8804825535</v>
       </c>
       <c r="L22" t="n">
-        <v>-26.52719306945801</v>
+        <v>-20884.06319653861</v>
       </c>
       <c r="M22" t="n">
-        <v>16056.0419921875</v>
+        <v>-37.12884521484375</v>
       </c>
       <c r="N22" t="n">
-        <v>-6216971.5</v>
+        <v>24346.3046875</v>
       </c>
       <c r="O22" t="n">
-        <v>-36.75962448120117</v>
+        <v>-1630242.297102399</v>
       </c>
       <c r="P22" t="n">
-        <v>2.040079355239868</v>
+        <v>-36.75937271118164</v>
       </c>
       <c r="Q22" t="n">
-        <v>117.0085678100586</v>
+        <v>2.040081024169922</v>
       </c>
       <c r="R22" t="n">
-        <v>2347.232851473923</v>
+        <v>117.0067367553711</v>
       </c>
       <c r="S22" t="n">
-        <v>28.86904761904762</v>
+        <v>2158.319409013605</v>
       </c>
       <c r="T22" t="n">
-        <v>4850</v>
+        <v>27.66071428571428</v>
       </c>
       <c r="U22" t="n">
+        <v>1218.5656221319</v>
+      </c>
+      <c r="V22" t="n">
         <v>13</v>
       </c>
     </row>
@@ -1957,60 +2025,63 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>-145.5667114257812</v>
+        <v>42.5735</v>
       </c>
       <c r="D23" t="n">
-        <v>-103.9572677612305</v>
+        <v>-3.419039322138294</v>
       </c>
       <c r="E23" t="n">
-        <v>-1550650.631543249</v>
+        <v>-2.441830608022009</v>
       </c>
       <c r="F23" t="n">
-        <v>-1107405.696529895</v>
+        <v>-1550584.129290655</v>
       </c>
       <c r="G23" t="n">
-        <v>22.74709520861506</v>
+        <v>-1107405.769289471</v>
       </c>
       <c r="H23" t="n">
-        <v>9.978393791243434</v>
+        <v>22.74698344990611</v>
       </c>
       <c r="I23" t="n">
-        <v>-2344272.652408108</v>
+        <v>9.978534653782845</v>
       </c>
       <c r="J23" t="n">
-        <v>-128643.2507185964</v>
+        <v>-2344550.448469818</v>
       </c>
       <c r="K23" t="n">
-        <v>-778260.875</v>
+        <v>-128619.5765715092</v>
       </c>
       <c r="L23" t="n">
-        <v>-21.21758079528809</v>
+        <v>-17058.79978155425</v>
       </c>
       <c r="M23" t="n">
-        <v>10550.4892578125</v>
+        <v>-30.46106910705566</v>
       </c>
       <c r="N23" t="n">
-        <v>-50290076</v>
+        <v>15952.767578125</v>
       </c>
       <c r="O23" t="n">
+        <v>-1181253.032990005</v>
+      </c>
+      <c r="P23" t="n">
         <v>-26.75217437744141</v>
       </c>
-      <c r="P23" t="n">
-        <v>2.988329172134399</v>
-      </c>
       <c r="Q23" t="n">
-        <v>132.9420318603516</v>
+        <v>2.988329648971558</v>
       </c>
       <c r="R23" t="n">
-        <v>4292.208145656887</v>
+        <v>132.9419708251953</v>
       </c>
       <c r="S23" t="n">
-        <v>64.89344698987746</v>
+        <v>4287.814899766656</v>
       </c>
       <c r="T23" t="n">
-        <v>121805</v>
+        <v>64.82205647309536</v>
       </c>
       <c r="U23" t="n">
+        <v>2857.904565046331</v>
+      </c>
+      <c r="V23" t="n">
         <v>44</v>
       </c>
     </row>
@@ -2024,60 +2095,63 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>-0.1582419872283936</v>
+        <v>5.0735</v>
       </c>
       <c r="D24" t="n">
-        <v>-1.598142385482788</v>
+        <v>-0.03132551564857315</v>
       </c>
       <c r="E24" t="n">
-        <v>-14145.04140484496</v>
+        <v>-0.3146323544927168</v>
       </c>
       <c r="F24" t="n">
-        <v>-142855.8243787847</v>
+        <v>-14206.54143657885</v>
       </c>
       <c r="G24" t="n">
-        <v>6.480730371549726</v>
+        <v>-142689.9962098105</v>
       </c>
       <c r="H24" t="n">
-        <v>4.450551059562713</v>
+        <v>6.480732117779553</v>
       </c>
       <c r="I24" t="n">
-        <v>40956.87927474501</v>
+        <v>4.450615670066327</v>
       </c>
       <c r="J24" t="n">
-        <v>-107557.7620213153</v>
+        <v>43635.36845630733</v>
       </c>
       <c r="K24" t="n">
-        <v>-101620.515625</v>
+        <v>-105769.1679307027</v>
       </c>
       <c r="L24" t="n">
-        <v>-23.20103073120117</v>
+        <v>-18279.78558933675</v>
       </c>
       <c r="M24" t="n">
-        <v>13442.421875</v>
+        <v>-32.57551574707031</v>
       </c>
       <c r="N24" t="n">
-        <v>-7445322</v>
+        <v>20392.677734375</v>
       </c>
       <c r="O24" t="n">
-        <v>-33.1677131652832</v>
+        <v>-1467485.660786439</v>
       </c>
       <c r="P24" t="n">
-        <v>1.117279767990112</v>
+        <v>-33.16756057739258</v>
       </c>
       <c r="Q24" t="n">
-        <v>180.1237182617188</v>
+        <v>1.117280840873718</v>
       </c>
       <c r="R24" t="n">
-        <v>2990.370528263187</v>
+        <v>180.121337890625</v>
       </c>
       <c r="S24" t="n">
-        <v>47.10313901345292</v>
+        <v>2988.18323312353</v>
       </c>
       <c r="T24" t="n">
-        <v>10504</v>
+        <v>47.16591928251121</v>
       </c>
       <c r="U24" t="n">
+        <v>2073.12506159456</v>
+      </c>
+      <c r="V24" t="n">
         <v>29</v>
       </c>
     </row>

--- a/d_backend/data.xlsx
+++ b/d_backend/data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V24"/>
+  <dimension ref="A1:X24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,95 +451,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> np.sum(y_harmonic)</t>
+          <t>np.mean(contrast)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>np.mean(mfccsdf)</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>np.sum(y_harmonic)</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t xml:space="preserve"> np.sum(y_percussive)</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> np.mean(y_harmonic)*10**10</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> np.mean(y_percussive)*10**10</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> np.var(y_harmonic)*10**4</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>np.var(y_percussive)*10**4</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> np.median(y_harmonic)*10**10</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> np.median(y_percussive)*10**10</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> np.sum(mfccs)</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> np.mean(mfccs)</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> np.var(mfccs)</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> np.sum(Xdb)</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> np.mean(Xdb)</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t xml:space="preserve"> np.var(X)</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>np.var(Xdb)</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>np.var(zero_crossing)</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>np.mean(zero_crossing)</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>np.sum(zero_crossing)</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>np.median(zero_crossing)</t>
         </is>
@@ -558,60 +568,66 @@
         <v>28.06</v>
       </c>
       <c r="D2" t="n">
+        <v>10669.7021484375</v>
+      </c>
+      <c r="E2" t="n">
+        <v>29.69292816748986</v>
+      </c>
+      <c r="F2" t="n">
         <v>-0.01580616511027471</v>
       </c>
-      <c r="E2" t="n">
+      <c r="G2" t="n">
         <v>-0.3884644484570939</v>
       </c>
-      <c r="F2" t="n">
+      <c r="H2" t="n">
         <v>-7168.328579609806</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
         <v>-176174.3442330044</v>
       </c>
-      <c r="H2" t="n">
+      <c r="J2" t="n">
         <v>2.444884739816189</v>
       </c>
-      <c r="I2" t="n">
+      <c r="K2" t="n">
         <v>24.94796877726912</v>
       </c>
-      <c r="J2" t="n">
+      <c r="L2" t="n">
         <v>41964.19467916712</v>
       </c>
-      <c r="K2" t="n">
+      <c r="M2" t="n">
         <v>6352.47488389723</v>
       </c>
-      <c r="L2" t="n">
+      <c r="N2" t="n">
         <v>-20502.75302922309</v>
       </c>
-      <c r="M2" t="n">
+      <c r="O2" t="n">
         <v>-36.6041374206543</v>
       </c>
-      <c r="N2" t="n">
+      <c r="P2" t="n">
         <v>20014.052734375</v>
       </c>
-      <c r="O2" t="n">
+      <c r="Q2" t="n">
         <v>-1207804.989308625</v>
       </c>
-      <c r="P2" t="n">
+      <c r="R2" t="n">
         <v>-27.34855079650879</v>
       </c>
-      <c r="Q2" t="n">
+      <c r="S2" t="n">
         <v>2.399916648864746</v>
       </c>
-      <c r="R2" t="n">
+      <c r="T2" t="n">
         <v>272.8741455078125</v>
       </c>
-      <c r="S2" t="n">
+      <c r="U2" t="n">
         <v>4973.771196514895</v>
       </c>
-      <c r="T2" t="n">
+      <c r="V2" t="n">
         <v>100.2829426030719</v>
       </c>
-      <c r="U2" t="n">
+      <c r="W2" t="n">
         <v>4420.88382038489</v>
       </c>
-      <c r="V2" t="n">
+      <c r="X2" t="n">
         <v>86</v>
       </c>
     </row>
@@ -628,60 +644,66 @@
         <v>6.04</v>
       </c>
       <c r="D3" t="n">
+        <v>9969.873046875</v>
+      </c>
+      <c r="E3" t="n">
+        <v>18.60992573774778</v>
+      </c>
+      <c r="F3" t="n">
         <v>-0.0782524858484205</v>
       </c>
-      <c r="E3" t="n">
+      <c r="G3" t="n">
         <v>-0.6301502913039252</v>
       </c>
-      <c r="F3" t="n">
+      <c r="H3" t="n">
         <v>-35488.656067173</v>
       </c>
-      <c r="G3" t="n">
+      <c r="I3" t="n">
         <v>-285782.4438251555</v>
       </c>
-      <c r="H3" t="n">
+      <c r="J3" t="n">
         <v>1.800472964532673</v>
       </c>
-      <c r="I3" t="n">
+      <c r="K3" t="n">
         <v>3.508466179482639</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>355317.8248694167</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>6197.501534188632</v>
       </c>
-      <c r="L3" t="n">
+      <c r="N3" t="n">
         <v>-20530.96155836093</v>
       </c>
-      <c r="M3" t="n">
+      <c r="O3" t="n">
         <v>-36.54789352416992</v>
       </c>
-      <c r="N3" t="n">
+      <c r="P3" t="n">
         <v>21883.275390625</v>
       </c>
-      <c r="O3" t="n">
+      <c r="Q3" t="n">
         <v>-1447152.814569536</v>
       </c>
-      <c r="P3" t="n">
+      <c r="R3" t="n">
         <v>-32.67284393310547</v>
       </c>
-      <c r="Q3" t="n">
+      <c r="S3" t="n">
         <v>0.5124603509902954</v>
       </c>
-      <c r="R3" t="n">
+      <c r="T3" t="n">
         <v>271.4896850585938</v>
       </c>
-      <c r="S3" t="n">
+      <c r="U3" t="n">
         <v>4813.018669794788</v>
       </c>
-      <c r="T3" t="n">
+      <c r="V3" t="n">
         <v>84.27443609022556</v>
       </c>
-      <c r="U3" t="n">
+      <c r="W3" t="n">
         <v>3711.423841059603</v>
       </c>
-      <c r="V3" t="n">
+      <c r="X3" t="n">
         <v>54</v>
       </c>
     </row>
@@ -698,60 +720,66 @@
         <v>19.94</v>
       </c>
       <c r="D4" t="n">
+        <v>7256.689453125</v>
+      </c>
+      <c r="E4" t="n">
+        <v>19.43445647679842</v>
+      </c>
+      <c r="F4" t="n">
         <v>-0.337040938489296</v>
       </c>
-      <c r="E4" t="n">
+      <c r="G4" t="n">
         <v>-0.8161000526298132</v>
       </c>
-      <c r="F4" t="n">
+      <c r="H4" t="n">
         <v>-152853.0265204608</v>
       </c>
-      <c r="G4" t="n">
+      <c r="I4" t="n">
         <v>-370113.4119182825</v>
       </c>
-      <c r="H4" t="n">
+      <c r="J4" t="n">
         <v>61.44575774669647</v>
       </c>
-      <c r="I4" t="n">
+      <c r="K4" t="n">
         <v>54.47093397378922</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>657252.0214831457</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>0</v>
       </c>
-      <c r="L4" t="n">
+      <c r="N4" t="n">
         <v>-14446.3233450351</v>
       </c>
-      <c r="M4" t="n">
+      <c r="O4" t="n">
         <v>-25.79561996459961</v>
       </c>
-      <c r="N4" t="n">
+      <c r="P4" t="n">
         <v>16124.8251953125</v>
       </c>
-      <c r="O4" t="n">
+      <c r="Q4" t="n">
         <v>-1205598.595787362</v>
       </c>
-      <c r="P4" t="n">
+      <c r="R4" t="n">
         <v>-27.30303001403809</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="S4" t="n">
         <v>10.97116470336914</v>
       </c>
-      <c r="R4" t="n">
+      <c r="T4" t="n">
         <v>118.2929000854492</v>
       </c>
-      <c r="S4" t="n">
+      <c r="U4" t="n">
         <v>2163.103254939875</v>
       </c>
-      <c r="T4" t="n">
+      <c r="V4" t="n">
         <v>44.03754266211604</v>
       </c>
-      <c r="U4" t="n">
+      <c r="W4" t="n">
         <v>1941.273821464393</v>
       </c>
-      <c r="V4" t="n">
+      <c r="X4" t="n">
         <v>21</v>
       </c>
     </row>
@@ -768,60 +796,66 @@
         <v>27.1135</v>
       </c>
       <c r="D5" t="n">
+        <v>9668.408203125</v>
+      </c>
+      <c r="E5" t="n">
+        <v>20.08644976065709</v>
+      </c>
+      <c r="F5" t="n">
         <v>-0.8039353314899059</v>
       </c>
-      <c r="E5" t="n">
+      <c r="G5" t="n">
         <v>-5.250202450282782</v>
       </c>
-      <c r="F5" t="n">
+      <c r="H5" t="n">
         <v>-364596.3079179637</v>
       </c>
-      <c r="G5" t="n">
+      <c r="I5" t="n">
         <v>-2381042.868364602</v>
       </c>
-      <c r="H5" t="n">
+      <c r="J5" t="n">
         <v>134.0437866747379</v>
       </c>
-      <c r="I5" t="n">
+      <c r="K5" t="n">
         <v>40.89256748557091</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>-3780198.167078197</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>-3080696.042161435</v>
       </c>
-      <c r="L5" t="n">
+      <c r="N5" t="n">
         <v>-9365.310408099287</v>
       </c>
-      <c r="M5" t="n">
+      <c r="O5" t="n">
         <v>-16.7232837677002</v>
       </c>
-      <c r="N5" t="n">
+      <c r="P5" t="n">
         <v>7826.44482421875</v>
       </c>
-      <c r="O5" t="n">
+      <c r="Q5" t="n">
         <v>-767899.0908587973</v>
       </c>
-      <c r="P5" t="n">
+      <c r="R5" t="n">
         <v>-17.39093971252441</v>
       </c>
-      <c r="Q5" t="n">
+      <c r="S5" t="n">
         <v>16.89187431335449</v>
       </c>
-      <c r="R5" t="n">
+      <c r="T5" t="n">
         <v>186.1728973388672</v>
       </c>
-      <c r="S5" t="n">
+      <c r="U5" t="n">
         <v>2043.973585896606</v>
       </c>
-      <c r="T5" t="n">
+      <c r="V5" t="n">
         <v>45.66945606694561</v>
       </c>
-      <c r="U5" t="n">
+      <c r="W5" t="n">
         <v>2012.834934626662</v>
       </c>
-      <c r="V5" t="n">
+      <c r="X5" t="n">
         <v>33</v>
       </c>
     </row>
@@ -838,60 +872,66 @@
         <v>54.0135</v>
       </c>
       <c r="D6" t="n">
+        <v>9453.076171875</v>
+      </c>
+      <c r="E6" t="n">
+        <v>21.29089275506827</v>
+      </c>
+      <c r="F6" t="n">
         <v>-2.556647418549009</v>
       </c>
-      <c r="E6" t="n">
+      <c r="G6" t="n">
         <v>-2.89809698861092</v>
       </c>
-      <c r="F6" t="n">
+      <c r="H6" t="n">
         <v>-1159476.960310712</v>
       </c>
-      <c r="G6" t="n">
+      <c r="I6" t="n">
         <v>-1314329.274464399</v>
       </c>
-      <c r="H6" t="n">
+      <c r="J6" t="n">
         <v>10.95518004149199</v>
       </c>
-      <c r="I6" t="n">
+      <c r="K6" t="n">
         <v>27.06973580643535</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>-3057633.875869215</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>-466842.2479880974</v>
       </c>
-      <c r="L6" t="n">
+      <c r="N6" t="n">
         <v>-14545.99081711054</v>
       </c>
-      <c r="M6" t="n">
+      <c r="O6" t="n">
         <v>-25.97203063964844</v>
       </c>
-      <c r="N6" t="n">
+      <c r="P6" t="n">
         <v>15307.3662109375</v>
       </c>
-      <c r="O6" t="n">
+      <c r="Q6" t="n">
         <v>-1094843.770538847</v>
       </c>
-      <c r="P6" t="n">
+      <c r="R6" t="n">
         <v>-24.79329299926758</v>
       </c>
-      <c r="Q6" t="n">
+      <c r="S6" t="n">
         <v>3.810088634490967</v>
       </c>
-      <c r="R6" t="n">
+      <c r="T6" t="n">
         <v>200.382568359375</v>
       </c>
-      <c r="S6" t="n">
+      <c r="U6" t="n">
         <v>4573.223223683362</v>
       </c>
-      <c r="T6" t="n">
+      <c r="V6" t="n">
         <v>60.17807643847123</v>
       </c>
-      <c r="U6" t="n">
+      <c r="W6" t="n">
         <v>2652.744221352069</v>
       </c>
-      <c r="V6" t="n">
+      <c r="X6" t="n">
         <v>33</v>
       </c>
     </row>
@@ -908,60 +948,66 @@
         <v>134.0935</v>
       </c>
       <c r="D7" t="n">
+        <v>8031.884765625</v>
+      </c>
+      <c r="E7" t="n">
+        <v>20.52146516090784</v>
+      </c>
+      <c r="F7" t="n">
         <v>-3.643514370482396</v>
       </c>
-      <c r="E7" t="n">
+      <c r="G7" t="n">
         <v>-2.146786057134341</v>
       </c>
-      <c r="F7" t="n">
+      <c r="H7" t="n">
         <v>-1652387.290960178</v>
       </c>
-      <c r="G7" t="n">
+      <c r="I7" t="n">
         <v>-973599.0170156583</v>
       </c>
-      <c r="H7" t="n">
+      <c r="J7" t="n">
         <v>2.130444627255201</v>
       </c>
-      <c r="I7" t="n">
+      <c r="K7" t="n">
         <v>4.323314351495355</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>-1898533.519124612</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>-130007.629195461</v>
       </c>
-      <c r="L7" t="n">
+      <c r="N7" t="n">
         <v>-15929.06442146711</v>
       </c>
-      <c r="M7" t="n">
+      <c r="O7" t="n">
         <v>-28.45133590698242</v>
       </c>
-      <c r="N7" t="n">
+      <c r="P7" t="n">
         <v>17427.181640625</v>
       </c>
-      <c r="O7" t="n">
+      <c r="Q7" t="n">
         <v>-1333392.476145376</v>
       </c>
-      <c r="P7" t="n">
+      <c r="R7" t="n">
         <v>-30.20576667785645</v>
       </c>
-      <c r="Q7" t="n">
+      <c r="S7" t="n">
         <v>0.6761162877082825</v>
       </c>
-      <c r="R7" t="n">
+      <c r="T7" t="n">
         <v>186.0498657226562</v>
       </c>
-      <c r="S7" t="n">
+      <c r="U7" t="n">
         <v>2728.846362280693</v>
       </c>
-      <c r="T7" t="n">
+      <c r="V7" t="n">
         <v>62.93438187045493</v>
       </c>
-      <c r="U7" t="n">
+      <c r="W7" t="n">
         <v>2775.160615540649</v>
       </c>
-      <c r="V7" t="n">
+      <c r="X7" t="n">
         <v>39</v>
       </c>
     </row>
@@ -978,60 +1024,66 @@
         <v>25.7535</v>
       </c>
       <c r="D8" t="n">
+        <v>9593.0419921875</v>
+      </c>
+      <c r="E8" t="n">
+        <v>19.75653632132562</v>
+      </c>
+      <c r="F8" t="n">
         <v>0.01731294192068393</v>
       </c>
-      <c r="E8" t="n">
+      <c r="G8" t="n">
         <v>0.000791120763973617</v>
       </c>
-      <c r="F8" t="n">
+      <c r="H8" t="n">
         <v>7851.670034142444</v>
       </c>
-      <c r="G8" t="n">
+      <c r="I8" t="n">
         <v>358.7847174912895</v>
       </c>
-      <c r="H8" t="n">
+      <c r="J8" t="n">
         <v>9.320949320681393</v>
       </c>
-      <c r="I8" t="n">
+      <c r="K8" t="n">
         <v>6.915170815773308</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>366096.2102003396</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>-110672.4539567949</v>
       </c>
-      <c r="L8" t="n">
+      <c r="N8" t="n">
         <v>-13140.65442561205</v>
       </c>
-      <c r="M8" t="n">
+      <c r="O8" t="n">
         <v>-23.45237922668457</v>
       </c>
-      <c r="N8" t="n">
+      <c r="P8" t="n">
         <v>20017.046875</v>
       </c>
-      <c r="O8" t="n">
+      <c r="Q8" t="n">
         <v>-1462203.273341488</v>
       </c>
-      <c r="P8" t="n">
+      <c r="R8" t="n">
         <v>-33.09765243530273</v>
       </c>
-      <c r="Q8" t="n">
+      <c r="S8" t="n">
         <v>1.588518738746643</v>
       </c>
-      <c r="R8" t="n">
+      <c r="T8" t="n">
         <v>168.3248748779297</v>
       </c>
-      <c r="S8" t="n">
+      <c r="U8" t="n">
         <v>1088.792051078034</v>
       </c>
-      <c r="T8" t="n">
+      <c r="V8" t="n">
         <v>33.00440528634361</v>
       </c>
-      <c r="U8" t="n">
+      <c r="W8" t="n">
         <v>1454.559574426777</v>
       </c>
-      <c r="V8" t="n">
+      <c r="X8" t="n">
         <v>22</v>
       </c>
     </row>
@@ -1048,60 +1100,66 @@
         <v>30.0935</v>
       </c>
       <c r="D9" t="n">
+        <v>8925.5126953125</v>
+      </c>
+      <c r="E9" t="n">
+        <v>20.30451364242113</v>
+      </c>
+      <c r="F9" t="n">
         <v>-2.768851998997655</v>
       </c>
-      <c r="E9" t="n">
+      <c r="G9" t="n">
         <v>-2.977233964803836</v>
       </c>
-      <c r="F9" t="n">
+      <c r="H9" t="n">
         <v>-1255714.596481994</v>
       </c>
-      <c r="G9" t="n">
+      <c r="I9" t="n">
         <v>-1350218.808511272</v>
       </c>
-      <c r="H9" t="n">
+      <c r="J9" t="n">
         <v>15.48684551380575</v>
       </c>
-      <c r="I9" t="n">
+      <c r="K9" t="n">
         <v>20.45279368758202</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>-2939411.788247526</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>-244392.8678985685</v>
       </c>
-      <c r="L9" t="n">
+      <c r="N9" t="n">
         <v>-14244.33951683919</v>
       </c>
-      <c r="M9" t="n">
+      <c r="O9" t="n">
         <v>-25.42328643798828</v>
       </c>
-      <c r="N9" t="n">
+      <c r="P9" t="n">
         <v>13425.462890625</v>
       </c>
-      <c r="O9" t="n">
+      <c r="Q9" t="n">
         <v>-1065508.963729709</v>
       </c>
-      <c r="P9" t="n">
+      <c r="R9" t="n">
         <v>-24.11936950683594</v>
       </c>
-      <c r="Q9" t="n">
+      <c r="S9" t="n">
         <v>3.770256996154785</v>
       </c>
-      <c r="R9" t="n">
+      <c r="T9" t="n">
         <v>183.2508392333984</v>
       </c>
-      <c r="S9" t="n">
+      <c r="U9" t="n">
         <v>3050.548308307717</v>
       </c>
-      <c r="T9" t="n">
+      <c r="V9" t="n">
         <v>62.62321024868124</v>
       </c>
-      <c r="U9" t="n">
+      <c r="W9" t="n">
         <v>2761.426886204662</v>
       </c>
-      <c r="V9" t="n">
+      <c r="X9" t="n">
         <v>43</v>
       </c>
     </row>
@@ -1118,60 +1176,66 @@
         <v>22.9335</v>
       </c>
       <c r="D10" t="n">
+        <v>8096.484375</v>
+      </c>
+      <c r="E10" t="n">
+        <v>19.74776533322457</v>
+      </c>
+      <c r="F10" t="n">
         <v>-3.025555024837438</v>
       </c>
-      <c r="E10" t="n">
+      <c r="G10" t="n">
         <v>-2.270094430955773</v>
       </c>
-      <c r="F10" t="n">
+      <c r="H10" t="n">
         <v>-1372132.974211127</v>
       </c>
-      <c r="G10" t="n">
+      <c r="I10" t="n">
         <v>-1029520.644806325</v>
       </c>
-      <c r="H10" t="n">
+      <c r="J10" t="n">
         <v>8.298819302581251</v>
       </c>
-      <c r="I10" t="n">
+      <c r="K10" t="n">
         <v>7.418782915920019</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>-2296584.425494075</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>-81635.29855664819</v>
       </c>
-      <c r="L10" t="n">
+      <c r="N10" t="n">
         <v>-16952.02841912486</v>
       </c>
-      <c r="M10" t="n">
+      <c r="O10" t="n">
         <v>-30.26855659484863</v>
       </c>
-      <c r="N10" t="n">
+      <c r="P10" t="n">
         <v>22422.615234375</v>
       </c>
-      <c r="O10" t="n">
+      <c r="Q10" t="n">
         <v>-1497290.513877079</v>
       </c>
-      <c r="P10" t="n">
+      <c r="R10" t="n">
         <v>-33.90748596191406</v>
       </c>
-      <c r="Q10" t="n">
+      <c r="S10" t="n">
         <v>1.616295337677002</v>
       </c>
-      <c r="R10" t="n">
+      <c r="T10" t="n">
         <v>183.8486938476562</v>
       </c>
-      <c r="S10" t="n">
+      <c r="U10" t="n">
         <v>4427.586295556006</v>
       </c>
-      <c r="T10" t="n">
+      <c r="V10" t="n">
         <v>45.14836795252226</v>
       </c>
-      <c r="U10" t="n">
+      <c r="W10" t="n">
         <v>1990.319837791877</v>
       </c>
-      <c r="V10" t="n">
+      <c r="X10" t="n">
         <v>17</v>
       </c>
     </row>
@@ -1188,60 +1252,66 @@
         <v>21.0135</v>
       </c>
       <c r="D11" t="n">
+        <v>8817.8466796875</v>
+      </c>
+      <c r="E11" t="n">
+        <v>19.13055653572082</v>
+      </c>
+      <c r="F11" t="n">
         <v>-3.294942834368382</v>
       </c>
-      <c r="E11" t="n">
+      <c r="G11" t="n">
         <v>-2.402052973618522</v>
       </c>
-      <c r="F11" t="n">
+      <c r="H11" t="n">
         <v>-1494304.16058749</v>
       </c>
-      <c r="G11" t="n">
+      <c r="I11" t="n">
         <v>-1089365.687221289</v>
       </c>
-      <c r="H11" t="n">
+      <c r="J11" t="n">
         <v>3.167646937072277</v>
       </c>
-      <c r="I11" t="n">
+      <c r="K11" t="n">
         <v>5.189139046706259</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>-2969761.844724417</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
         <v>-502941.9116908684</v>
       </c>
-      <c r="L11" t="n">
+      <c r="N11" t="n">
         <v>-16067.51760772836</v>
       </c>
-      <c r="M11" t="n">
+      <c r="O11" t="n">
         <v>-28.69823837280273</v>
       </c>
-      <c r="N11" t="n">
+      <c r="P11" t="n">
         <v>18436.001953125</v>
       </c>
-      <c r="O11" t="n">
+      <c r="Q11" t="n">
         <v>-1357783.424941109</v>
       </c>
-      <c r="P11" t="n">
+      <c r="R11" t="n">
         <v>-30.75788307189941</v>
       </c>
-      <c r="Q11" t="n">
+      <c r="S11" t="n">
         <v>0.8708328008651733</v>
       </c>
-      <c r="R11" t="n">
+      <c r="T11" t="n">
         <v>220.4846496582031</v>
       </c>
-      <c r="S11" t="n">
+      <c r="U11" t="n">
         <v>4825.175934953281</v>
       </c>
-      <c r="T11" t="n">
+      <c r="V11" t="n">
         <v>62.39308855291576</v>
       </c>
-      <c r="U11" t="n">
+      <c r="W11" t="n">
         <v>2749.470578437671</v>
       </c>
-      <c r="V11" t="n">
+      <c r="X11" t="n">
         <v>31</v>
       </c>
     </row>
@@ -1258,60 +1328,66 @@
         <v>29.5935</v>
       </c>
       <c r="D12" t="n">
+        <v>9399.2431640625</v>
+      </c>
+      <c r="E12" t="n">
+        <v>19.37974608027852</v>
+      </c>
+      <c r="F12" t="n">
         <v>-0.04741732927198286</v>
       </c>
-      <c r="E12" t="n">
+      <c r="G12" t="n">
         <v>-0.4733970859033953</v>
       </c>
-      <c r="F12" t="n">
+      <c r="H12" t="n">
         <v>-21504.44743165281</v>
       </c>
-      <c r="G12" t="n">
+      <c r="I12" t="n">
         <v>-214692.4452972598</v>
       </c>
-      <c r="H12" t="n">
+      <c r="J12" t="n">
         <v>25.50212666392326</v>
       </c>
-      <c r="I12" t="n">
+      <c r="K12" t="n">
         <v>28.02340779453516</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12" t="n">
         <v>1470768.766012043</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12" t="n">
         <v>55606.34235735051</v>
       </c>
-      <c r="L12" t="n">
+      <c r="N12" t="n">
         <v>-15188.48733674625</v>
       </c>
-      <c r="M12" t="n">
+      <c r="O12" t="n">
         <v>-27.11797904968262</v>
       </c>
-      <c r="N12" t="n">
+      <c r="P12" t="n">
         <v>14619.0908203125</v>
       </c>
-      <c r="O12" t="n">
+      <c r="Q12" t="n">
         <v>-1156990.420193624</v>
       </c>
-      <c r="P12" t="n">
+      <c r="R12" t="n">
         <v>-26.19944190979004</v>
       </c>
-      <c r="Q12" t="n">
+      <c r="S12" t="n">
         <v>5.755710124969482</v>
       </c>
-      <c r="R12" t="n">
+      <c r="T12" t="n">
         <v>202.3234405517578</v>
       </c>
-      <c r="S12" t="n">
+      <c r="U12" t="n">
         <v>3025.465198690566</v>
       </c>
-      <c r="T12" t="n">
+      <c r="V12" t="n">
         <v>53.0727969348659</v>
       </c>
-      <c r="U12" t="n">
+      <c r="W12" t="n">
         <v>2340.378799398517</v>
       </c>
-      <c r="V12" t="n">
+      <c r="X12" t="n">
         <v>26</v>
       </c>
     </row>
@@ -1328,60 +1404,66 @@
         <v>46.6735</v>
       </c>
       <c r="D13" t="n">
+        <v>9668.408203125</v>
+      </c>
+      <c r="E13" t="n">
+        <v>20.21109380783179</v>
+      </c>
+      <c r="F13" t="n">
         <v>-2.874887479855071</v>
       </c>
-      <c r="E13" t="n">
+      <c r="G13" t="n">
         <v>-3.020500073503467</v>
       </c>
-      <c r="F13" t="n">
+      <c r="H13" t="n">
         <v>-1303803.437622264</v>
       </c>
-      <c r="G13" t="n">
+      <c r="I13" t="n">
         <v>-1369840.902043507</v>
       </c>
-      <c r="H13" t="n">
+      <c r="J13" t="n">
         <v>6.547885714098811</v>
       </c>
-      <c r="I13" t="n">
+      <c r="K13" t="n">
         <v>25.13338578864932</v>
       </c>
-      <c r="J13" t="n">
+      <c r="L13" t="n">
         <v>-1881865.318864584</v>
       </c>
-      <c r="K13" t="n">
+      <c r="M13" t="n">
         <v>-1078981.949831359</v>
       </c>
-      <c r="L13" t="n">
+      <c r="N13" t="n">
         <v>-14517.19792816052</v>
       </c>
-      <c r="M13" t="n">
+      <c r="O13" t="n">
         <v>-25.91777610778809</v>
       </c>
-      <c r="N13" t="n">
+      <c r="P13" t="n">
         <v>13359.07421875</v>
       </c>
-      <c r="O13" t="n">
+      <c r="Q13" t="n">
         <v>-935542.6955338683</v>
       </c>
-      <c r="P13" t="n">
+      <c r="R13" t="n">
         <v>-21.18351554870605</v>
       </c>
-      <c r="Q13" t="n">
+      <c r="S13" t="n">
         <v>2.86476731300354</v>
       </c>
-      <c r="R13" t="n">
+      <c r="T13" t="n">
         <v>187.0039520263672</v>
       </c>
-      <c r="S13" t="n">
+      <c r="U13" t="n">
         <v>12420.76092916689</v>
       </c>
-      <c r="T13" t="n">
+      <c r="V13" t="n">
         <v>147.0019436345967</v>
       </c>
-      <c r="U13" t="n">
+      <c r="W13" t="n">
         <v>6481.836588213869</v>
       </c>
-      <c r="V13" t="n">
+      <c r="X13" t="n">
         <v>136</v>
       </c>
     </row>
@@ -1398,60 +1480,66 @@
         <v>34.7335</v>
       </c>
       <c r="D14" t="n">
+        <v>9259.27734375</v>
+      </c>
+      <c r="E14" t="n">
+        <v>19.3303316965611</v>
+      </c>
+      <c r="F14" t="n">
         <v>-2.66326482998166</v>
       </c>
-      <c r="E14" t="n">
+      <c r="G14" t="n">
         <v>-3.048489342848943</v>
       </c>
-      <c r="F14" t="n">
+      <c r="H14" t="n">
         <v>-1207829.336635768</v>
       </c>
-      <c r="G14" t="n">
+      <c r="I14" t="n">
         <v>-1382534.246658906</v>
       </c>
-      <c r="H14" t="n">
+      <c r="J14" t="n">
         <v>4.938037600368261</v>
       </c>
-      <c r="I14" t="n">
+      <c r="K14" t="n">
         <v>5.868241423740983</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14" t="n">
         <v>-4350203.089416027</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14" t="n">
         <v>-1023382.355924696</v>
       </c>
-      <c r="L14" t="n">
+      <c r="N14" t="n">
         <v>-14915.27541854406</v>
       </c>
-      <c r="M14" t="n">
+      <c r="O14" t="n">
         <v>-26.6382007598877</v>
       </c>
-      <c r="N14" t="n">
+      <c r="P14" t="n">
         <v>18527.3984375</v>
       </c>
-      <c r="O14" t="n">
+      <c r="Q14" t="n">
         <v>-1392259.576489556</v>
       </c>
-      <c r="P14" t="n">
+      <c r="R14" t="n">
         <v>-31.53648567199707</v>
       </c>
-      <c r="Q14" t="n">
+      <c r="S14" t="n">
         <v>1.126389861106873</v>
       </c>
-      <c r="R14" t="n">
+      <c r="T14" t="n">
         <v>151.9209442138672</v>
       </c>
-      <c r="S14" t="n">
+      <c r="U14" t="n">
         <v>3445.976563603233</v>
       </c>
-      <c r="T14" t="n">
+      <c r="V14" t="n">
         <v>41.74330502939255</v>
       </c>
-      <c r="U14" t="n">
+      <c r="W14" t="n">
         <v>1839.98157398477</v>
       </c>
-      <c r="V14" t="n">
+      <c r="X14" t="n">
         <v>20</v>
       </c>
     </row>
@@ -1468,60 +1556,66 @@
         <v>44.78</v>
       </c>
       <c r="D15" t="n">
+        <v>10691.2353515625</v>
+      </c>
+      <c r="E15" t="n">
+        <v>19.29360159805843</v>
+      </c>
+      <c r="F15" t="n">
         <v>0.5062521116283122</v>
       </c>
-      <c r="E15" t="n">
+      <c r="G15" t="n">
         <v>-1.282583171099943</v>
       </c>
-      <c r="F15" t="n">
+      <c r="H15" t="n">
         <v>229592.7879458759</v>
       </c>
-      <c r="G15" t="n">
+      <c r="I15" t="n">
         <v>-581670.3560412861</v>
       </c>
-      <c r="H15" t="n">
+      <c r="J15" t="n">
         <v>5.273375427350402</v>
       </c>
-      <c r="I15" t="n">
+      <c r="K15" t="n">
         <v>10.914042359218</v>
       </c>
-      <c r="J15" t="n">
+      <c r="L15" t="n">
         <v>-5862861.289642751</v>
       </c>
-      <c r="K15" t="n">
+      <c r="M15" t="n">
         <v>-928098.7433157861</v>
       </c>
-      <c r="L15" t="n">
+      <c r="N15" t="n">
         <v>-9642.644595801698</v>
       </c>
-      <c r="M15" t="n">
+      <c r="O15" t="n">
         <v>-17.21887016296387</v>
       </c>
-      <c r="N15" t="n">
+      <c r="P15" t="n">
         <v>16272.201171875</v>
       </c>
-      <c r="O15" t="n">
+      <c r="Q15" t="n">
         <v>-1110884.144707459</v>
       </c>
-      <c r="P15" t="n">
+      <c r="R15" t="n">
         <v>-25.1591968536377</v>
       </c>
-      <c r="Q15" t="n">
+      <c r="S15" t="n">
         <v>1.647398352622986</v>
       </c>
-      <c r="R15" t="n">
+      <c r="T15" t="n">
         <v>107.6587677001953</v>
       </c>
-      <c r="S15" t="n">
+      <c r="U15" t="n">
         <v>2114.944286104362</v>
       </c>
-      <c r="T15" t="n">
+      <c r="V15" t="n">
         <v>29.7806484295846</v>
       </c>
-      <c r="U15" t="n">
+      <c r="W15" t="n">
         <v>1312.795891022778</v>
       </c>
-      <c r="V15" t="n">
+      <c r="X15" t="n">
         <v>15</v>
       </c>
     </row>
@@ -1538,60 +1632,66 @@
         <v>30.5735</v>
       </c>
       <c r="D16" t="n">
+        <v>7784.2529296875</v>
+      </c>
+      <c r="E16" t="n">
+        <v>19.98509260935661</v>
+      </c>
+      <c r="F16" t="n">
         <v>-1.8759197246524</v>
       </c>
-      <c r="E16" t="n">
+      <c r="G16" t="n">
         <v>-4.127466132939627</v>
       </c>
-      <c r="F16" t="n">
+      <c r="H16" t="n">
         <v>-850756.8418281153</v>
       </c>
-      <c r="G16" t="n">
+      <c r="I16" t="n">
         <v>-1871865.824796259</v>
       </c>
-      <c r="H16" t="n">
+      <c r="J16" t="n">
         <v>19.47786193341017</v>
       </c>
-      <c r="I16" t="n">
+      <c r="K16" t="n">
         <v>15.35476185381413</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16" t="n">
         <v>-2176885.463995859</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M16" t="n">
         <v>-266680.472122971</v>
       </c>
-      <c r="L16" t="n">
+      <c r="N16" t="n">
         <v>-11873.42183590364</v>
       </c>
-      <c r="M16" t="n">
+      <c r="O16" t="n">
         <v>-21.20273780822754</v>
       </c>
-      <c r="N16" t="n">
+      <c r="P16" t="n">
         <v>15923.3466796875</v>
       </c>
-      <c r="O16" t="n">
+      <c r="Q16" t="n">
         <v>-1172053.575809116</v>
       </c>
-      <c r="P16" t="n">
+      <c r="R16" t="n">
         <v>-26.54501533508301</v>
       </c>
-      <c r="Q16" t="n">
+      <c r="S16" t="n">
         <v>3.55709433555603</v>
       </c>
-      <c r="R16" t="n">
+      <c r="T16" t="n">
         <v>223.6999206542969</v>
       </c>
-      <c r="S16" t="n">
+      <c r="U16" t="n">
         <v>4001.104410094305</v>
       </c>
-      <c r="T16" t="n">
+      <c r="V16" t="n">
         <v>53.16172106824926</v>
       </c>
-      <c r="U16" t="n">
+      <c r="W16" t="n">
         <v>2343.925294781428</v>
       </c>
-      <c r="V16" t="n">
+      <c r="X16" t="n">
         <v>22</v>
       </c>
     </row>
@@ -1608,60 +1708,66 @@
         <v>37.2735</v>
       </c>
       <c r="D17" t="n">
+        <v>9646.875</v>
+      </c>
+      <c r="E17" t="n">
+        <v>19.14690421750912</v>
+      </c>
+      <c r="F17" t="n">
         <v>-0.03494796377841073</v>
       </c>
-      <c r="E17" t="n">
+      <c r="G17" t="n">
         <v>-0.3908728859846022</v>
       </c>
-      <c r="F17" t="n">
+      <c r="H17" t="n">
         <v>-15849.41060173151</v>
       </c>
-      <c r="G17" t="n">
+      <c r="I17" t="n">
         <v>-177266.5382304695</v>
       </c>
-      <c r="H17" t="n">
+      <c r="J17" t="n">
         <v>15.01531922258437</v>
       </c>
-      <c r="I17" t="n">
+      <c r="K17" t="n">
         <v>3.897263668477535</v>
       </c>
-      <c r="J17" t="n">
+      <c r="L17" t="n">
         <v>631908.3331618458</v>
       </c>
-      <c r="K17" t="n">
+      <c r="M17" t="n">
         <v>-142453.6185368197</v>
       </c>
-      <c r="L17" t="n">
+      <c r="N17" t="n">
         <v>-14939.6253370357</v>
       </c>
-      <c r="M17" t="n">
+      <c r="O17" t="n">
         <v>-26.67171859741211</v>
       </c>
-      <c r="N17" t="n">
+      <c r="P17" t="n">
         <v>15746.9677734375</v>
       </c>
-      <c r="O17" t="n">
+      <c r="Q17" t="n">
         <v>-1206922.451607711</v>
       </c>
-      <c r="P17" t="n">
+      <c r="R17" t="n">
         <v>-27.32814407348633</v>
       </c>
-      <c r="Q17" t="n">
+      <c r="S17" t="n">
         <v>1.749135971069336</v>
       </c>
-      <c r="R17" t="n">
+      <c r="T17" t="n">
         <v>150.5413665771484</v>
       </c>
-      <c r="S17" t="n">
+      <c r="U17" t="n">
         <v>4576.040993550907</v>
       </c>
-      <c r="T17" t="n">
+      <c r="V17" t="n">
         <v>59.7084601339014</v>
       </c>
-      <c r="U17" t="n">
+      <c r="W17" t="n">
         <v>2631.923484513126</v>
       </c>
-      <c r="V17" t="n">
+      <c r="X17" t="n">
         <v>29</v>
       </c>
     </row>
@@ -1678,60 +1784,66 @@
         <v>2.5735</v>
       </c>
       <c r="D18" t="n">
+        <v>9506.9091796875</v>
+      </c>
+      <c r="E18" t="n">
+        <v>16.90342718875246</v>
+      </c>
+      <c r="F18" t="n">
         <v>-5.248780710988538</v>
       </c>
-      <c r="E18" t="n">
+      <c r="G18" t="n">
         <v>-0.2162646895268368</v>
       </c>
-      <c r="F18" t="n">
+      <c r="H18" t="n">
         <v>-2380385.849392042</v>
       </c>
-      <c r="G18" t="n">
+      <c r="I18" t="n">
         <v>-98078.66263145115</v>
       </c>
-      <c r="H18" t="n">
+      <c r="J18" t="n">
         <v>0.1738507125992328</v>
       </c>
-      <c r="I18" t="n">
+      <c r="K18" t="n">
         <v>0.1723604327708017</v>
       </c>
-      <c r="J18" t="n">
+      <c r="L18" t="n">
         <v>-2320858.184248209</v>
       </c>
-      <c r="K18" t="n">
+      <c r="M18" t="n">
         <v>-39256.74718630034</v>
       </c>
-      <c r="L18" t="n">
+      <c r="N18" t="n">
         <v>-24326.84998542841</v>
       </c>
-      <c r="M18" t="n">
+      <c r="O18" t="n">
         <v>-43.38541030883789</v>
       </c>
-      <c r="N18" t="n">
+      <c r="P18" t="n">
         <v>29645.123046875</v>
       </c>
-      <c r="O18" t="n">
+      <c r="Q18" t="n">
         <v>-1940557.994948514</v>
       </c>
-      <c r="P18" t="n">
+      <c r="R18" t="n">
         <v>-43.89387893676758</v>
       </c>
-      <c r="Q18" t="n">
+      <c r="S18" t="n">
         <v>0.03664913401007652</v>
       </c>
-      <c r="R18" t="n">
+      <c r="T18" t="n">
         <v>177.0949096679688</v>
       </c>
-      <c r="S18" t="n">
+      <c r="U18" t="n">
         <v>2433.934215678596</v>
       </c>
-      <c r="T18" t="n">
+      <c r="V18" t="n">
         <v>63.06194690265487</v>
       </c>
-      <c r="U18" t="n">
+      <c r="W18" t="n">
         <v>2768.991645618807</v>
       </c>
-      <c r="V18" t="n">
+      <c r="X18" t="n">
         <v>47</v>
       </c>
     </row>
@@ -1748,60 +1860,66 @@
         <v>26.88</v>
       </c>
       <c r="D19" t="n">
+        <v>9808.3740234375</v>
+      </c>
+      <c r="E19" t="n">
+        <v>17.14052358651773</v>
+      </c>
+      <c r="F19" t="n">
         <v>-0.0008304445405623743</v>
       </c>
-      <c r="E19" t="n">
+      <c r="G19" t="n">
         <v>-0.0560916250660306</v>
       </c>
-      <c r="F19" t="n">
+      <c r="H19" t="n">
         <v>-376.618842778953</v>
       </c>
-      <c r="G19" t="n">
+      <c r="I19" t="n">
         <v>-25438.37808843818</v>
       </c>
-      <c r="H19" t="n">
+      <c r="J19" t="n">
         <v>19.23201023600996</v>
       </c>
-      <c r="I19" t="n">
+      <c r="K19" t="n">
         <v>12.53530150279403</v>
       </c>
-      <c r="J19" t="n">
+      <c r="L19" t="n">
         <v>-1124483.605963178</v>
       </c>
-      <c r="K19" t="n">
+      <c r="M19" t="n">
         <v>-208738.2017634809</v>
       </c>
-      <c r="L19" t="n">
+      <c r="N19" t="n">
         <v>-14196.96800595238</v>
       </c>
-      <c r="M19" t="n">
+      <c r="O19" t="n">
         <v>-25.34970855712891</v>
       </c>
-      <c r="N19" t="n">
+      <c r="P19" t="n">
         <v>14096.78125</v>
       </c>
-      <c r="O19" t="n">
+      <c r="Q19" t="n">
         <v>-1170425.223214286</v>
       </c>
-      <c r="P19" t="n">
+      <c r="R19" t="n">
         <v>-26.50577545166016</v>
       </c>
-      <c r="Q19" t="n">
+      <c r="S19" t="n">
         <v>3.164632081985474</v>
       </c>
-      <c r="R19" t="n">
+      <c r="T19" t="n">
         <v>179.3547973632812</v>
       </c>
-      <c r="S19" t="n">
+      <c r="U19" t="n">
         <v>5613.188994641172</v>
       </c>
-      <c r="T19" t="n">
+      <c r="V19" t="n">
         <v>59.60590717299578</v>
       </c>
-      <c r="U19" t="n">
+      <c r="W19" t="n">
         <v>2627.715773809524</v>
       </c>
-      <c r="V19" t="n">
+      <c r="X19" t="n">
         <v>31</v>
       </c>
     </row>
@@ -1818,60 +1936,66 @@
         <v>31.0135</v>
       </c>
       <c r="D20" t="n">
+        <v>8247.216796875</v>
+      </c>
+      <c r="E20" t="n">
+        <v>16.81373614145194</v>
+      </c>
+      <c r="F20" t="n">
         <v>-3.80876172041888</v>
       </c>
-      <c r="E20" t="n">
+      <c r="G20" t="n">
         <v>-1.896709399272759</v>
       </c>
-      <c r="F20" t="n">
+      <c r="H20" t="n">
         <v>-1727328.781271353</v>
       </c>
-      <c r="G20" t="n">
+      <c r="I20" t="n">
         <v>-860185.2459833026</v>
       </c>
-      <c r="H20" t="n">
+      <c r="J20" t="n">
         <v>44.93504296988249</v>
       </c>
-      <c r="I20" t="n">
+      <c r="K20" t="n">
         <v>13.66386190056801</v>
       </c>
-      <c r="J20" t="n">
+      <c r="L20" t="n">
         <v>-2723617.36278981</v>
       </c>
-      <c r="K20" t="n">
+      <c r="M20" t="n">
         <v>-681394.0854044631</v>
       </c>
-      <c r="L20" t="n">
+      <c r="N20" t="n">
         <v>-16270.78631080013</v>
       </c>
-      <c r="M20" t="n">
+      <c r="O20" t="n">
         <v>-29.05423927307129</v>
       </c>
-      <c r="N20" t="n">
+      <c r="P20" t="n">
         <v>10622.40625</v>
       </c>
-      <c r="O20" t="n">
+      <c r="Q20" t="n">
         <v>-1010348.525642059</v>
       </c>
-      <c r="P20" t="n">
+      <c r="R20" t="n">
         <v>-22.88187789916992</v>
       </c>
-      <c r="Q20" t="n">
+      <c r="S20" t="n">
         <v>5.749042510986328</v>
       </c>
-      <c r="R20" t="n">
+      <c r="T20" t="n">
         <v>175.1441040039062</v>
       </c>
-      <c r="S20" t="n">
+      <c r="U20" t="n">
         <v>3497.038858793518</v>
       </c>
-      <c r="T20" t="n">
+      <c r="V20" t="n">
         <v>53.40014630577908</v>
       </c>
-      <c r="U20" t="n">
+      <c r="W20" t="n">
         <v>2353.749173746917</v>
       </c>
-      <c r="V20" t="n">
+      <c r="X20" t="n">
         <v>28</v>
       </c>
     </row>
@@ -1888,60 +2012,66 @@
         <v>7.6935</v>
       </c>
       <c r="D21" t="n">
+        <v>8860.9130859375</v>
+      </c>
+      <c r="E21" t="n">
+        <v>15.6378162585772</v>
+      </c>
+      <c r="F21" t="n">
         <v>-4.450267926366921</v>
       </c>
-      <c r="E21" t="n">
+      <c r="G21" t="n">
         <v>-0.813110271237426</v>
       </c>
-      <c r="F21" t="n">
+      <c r="H21" t="n">
         <v>-2018258.237512782</v>
       </c>
-      <c r="G21" t="n">
+      <c r="I21" t="n">
         <v>-368756.7732413299</v>
       </c>
-      <c r="H21" t="n">
+      <c r="J21" t="n">
         <v>2.992056543007493</v>
       </c>
-      <c r="I21" t="n">
+      <c r="K21" t="n">
         <v>5.66566304769367</v>
       </c>
-      <c r="J21" t="n">
+      <c r="L21" t="n">
         <v>-2306235.837750137</v>
       </c>
-      <c r="K21" t="n">
+      <c r="M21" t="n">
         <v>-24575.96337990253</v>
       </c>
-      <c r="L21" t="n">
+      <c r="N21" t="n">
         <v>-23763.59304932735</v>
       </c>
-      <c r="M21" t="n">
+      <c r="O21" t="n">
         <v>-42.35987091064453</v>
       </c>
-      <c r="N21" t="n">
+      <c r="P21" t="n">
         <v>29619.669921875</v>
       </c>
-      <c r="O21" t="n">
+      <c r="Q21" t="n">
         <v>-1714859.816728407</v>
       </c>
-      <c r="P21" t="n">
+      <c r="R21" t="n">
         <v>-38.76953887939453</v>
       </c>
-      <c r="Q21" t="n">
+      <c r="S21" t="n">
         <v>0.8380641937255859</v>
       </c>
-      <c r="R21" t="n">
+      <c r="T21" t="n">
         <v>94.48743438720703</v>
       </c>
-      <c r="S21" t="n">
+      <c r="U21" t="n">
         <v>3130.794476205394</v>
       </c>
-      <c r="T21" t="n">
+      <c r="V21" t="n">
         <v>28.1504424778761</v>
       </c>
-      <c r="U21" t="n">
+      <c r="W21" t="n">
         <v>1240.397738350556</v>
       </c>
-      <c r="V21" t="n">
+      <c r="X21" t="n">
         <v>10</v>
       </c>
     </row>
@@ -1958,60 +2088,66 @@
         <v>3.8135</v>
       </c>
       <c r="D22" t="n">
+        <v>8817.8466796875</v>
+      </c>
+      <c r="E22" t="n">
+        <v>14.64259703080733</v>
+      </c>
+      <c r="F22" t="n">
         <v>-4.526757249923432</v>
       </c>
-      <c r="E22" t="n">
+      <c r="G22" t="n">
         <v>-1.853131491437377</v>
       </c>
-      <c r="F22" t="n">
+      <c r="H22" t="n">
         <v>-2052943.164017051</v>
       </c>
-      <c r="G22" t="n">
+      <c r="I22" t="n">
         <v>-840419.1612498835</v>
       </c>
-      <c r="H22" t="n">
+      <c r="J22" t="n">
         <v>11.50900614447892</v>
       </c>
-      <c r="I22" t="n">
+      <c r="K22" t="n">
         <v>8.488587918691337</v>
       </c>
-      <c r="J22" t="n">
+      <c r="L22" t="n">
         <v>-2259019.238408655</v>
       </c>
-      <c r="K22" t="n">
+      <c r="M22" t="n">
         <v>-59418.8804825535</v>
       </c>
-      <c r="L22" t="n">
+      <c r="N22" t="n">
         <v>-20884.06319653861</v>
       </c>
-      <c r="M22" t="n">
+      <c r="O22" t="n">
         <v>-37.12884521484375</v>
       </c>
-      <c r="N22" t="n">
+      <c r="P22" t="n">
         <v>24346.3046875</v>
       </c>
-      <c r="O22" t="n">
+      <c r="Q22" t="n">
         <v>-1630242.297102399</v>
       </c>
-      <c r="P22" t="n">
+      <c r="R22" t="n">
         <v>-36.75937271118164</v>
       </c>
-      <c r="Q22" t="n">
+      <c r="S22" t="n">
         <v>2.040081024169922</v>
       </c>
-      <c r="R22" t="n">
+      <c r="T22" t="n">
         <v>117.0067367553711</v>
       </c>
-      <c r="S22" t="n">
+      <c r="U22" t="n">
         <v>2158.319409013605</v>
       </c>
-      <c r="T22" t="n">
+      <c r="V22" t="n">
         <v>27.66071428571428</v>
       </c>
-      <c r="U22" t="n">
+      <c r="W22" t="n">
         <v>1218.5656221319</v>
       </c>
-      <c r="V22" t="n">
+      <c r="X22" t="n">
         <v>13</v>
       </c>
     </row>
@@ -2028,60 +2164,66 @@
         <v>42.5735</v>
       </c>
       <c r="D23" t="n">
+        <v>9506.9091796875</v>
+      </c>
+      <c r="E23" t="n">
+        <v>14.85258730975064</v>
+      </c>
+      <c r="F23" t="n">
         <v>-3.419039322138294</v>
       </c>
-      <c r="E23" t="n">
+      <c r="G23" t="n">
         <v>-2.441830608022009</v>
       </c>
-      <c r="F23" t="n">
+      <c r="H23" t="n">
         <v>-1550584.129290655</v>
       </c>
-      <c r="G23" t="n">
+      <c r="I23" t="n">
         <v>-1107405.769289471</v>
       </c>
-      <c r="H23" t="n">
+      <c r="J23" t="n">
         <v>22.74698344990611</v>
       </c>
-      <c r="I23" t="n">
+      <c r="K23" t="n">
         <v>9.978534653782845</v>
       </c>
-      <c r="J23" t="n">
+      <c r="L23" t="n">
         <v>-2344550.448469818</v>
       </c>
-      <c r="K23" t="n">
+      <c r="M23" t="n">
         <v>-128619.5765715092</v>
       </c>
-      <c r="L23" t="n">
+      <c r="N23" t="n">
         <v>-17058.79978155425</v>
       </c>
-      <c r="M23" t="n">
+      <c r="O23" t="n">
         <v>-30.46106910705566</v>
       </c>
-      <c r="N23" t="n">
+      <c r="P23" t="n">
         <v>15952.767578125</v>
       </c>
-      <c r="O23" t="n">
+      <c r="Q23" t="n">
         <v>-1181253.032990005</v>
       </c>
-      <c r="P23" t="n">
+      <c r="R23" t="n">
         <v>-26.75217437744141</v>
       </c>
-      <c r="Q23" t="n">
+      <c r="S23" t="n">
         <v>2.988329648971558</v>
       </c>
-      <c r="R23" t="n">
+      <c r="T23" t="n">
         <v>132.9419708251953</v>
       </c>
-      <c r="S23" t="n">
+      <c r="U23" t="n">
         <v>4287.814899766656</v>
       </c>
-      <c r="T23" t="n">
+      <c r="V23" t="n">
         <v>64.82205647309536</v>
       </c>
-      <c r="U23" t="n">
+      <c r="W23" t="n">
         <v>2857.904565046331</v>
       </c>
-      <c r="V23" t="n">
+      <c r="X23" t="n">
         <v>44</v>
       </c>
     </row>
@@ -2098,60 +2240,66 @@
         <v>5.0735</v>
       </c>
       <c r="D24" t="n">
+        <v>9883.740234375</v>
+      </c>
+      <c r="E24" t="n">
+        <v>14.25788654850478</v>
+      </c>
+      <c r="F24" t="n">
         <v>-0.03132551564857315</v>
       </c>
-      <c r="E24" t="n">
+      <c r="G24" t="n">
         <v>-0.3146323544927168</v>
       </c>
-      <c r="F24" t="n">
+      <c r="H24" t="n">
         <v>-14206.54143657885</v>
       </c>
-      <c r="G24" t="n">
+      <c r="I24" t="n">
         <v>-142689.9962098105</v>
       </c>
-      <c r="H24" t="n">
+      <c r="J24" t="n">
         <v>6.480732117779553</v>
       </c>
-      <c r="I24" t="n">
+      <c r="K24" t="n">
         <v>4.450615670066327</v>
       </c>
-      <c r="J24" t="n">
+      <c r="L24" t="n">
         <v>43635.36845630733</v>
       </c>
-      <c r="K24" t="n">
+      <c r="M24" t="n">
         <v>-105769.1679307027</v>
       </c>
-      <c r="L24" t="n">
+      <c r="N24" t="n">
         <v>-18279.78558933675</v>
       </c>
-      <c r="M24" t="n">
+      <c r="O24" t="n">
         <v>-32.57551574707031</v>
       </c>
-      <c r="N24" t="n">
+      <c r="P24" t="n">
         <v>20392.677734375</v>
       </c>
-      <c r="O24" t="n">
+      <c r="Q24" t="n">
         <v>-1467485.660786439</v>
       </c>
-      <c r="P24" t="n">
+      <c r="R24" t="n">
         <v>-33.16756057739258</v>
       </c>
-      <c r="Q24" t="n">
+      <c r="S24" t="n">
         <v>1.117280840873718</v>
       </c>
-      <c r="R24" t="n">
+      <c r="T24" t="n">
         <v>180.121337890625</v>
       </c>
-      <c r="S24" t="n">
+      <c r="U24" t="n">
         <v>2988.18323312353</v>
       </c>
-      <c r="T24" t="n">
+      <c r="V24" t="n">
         <v>47.16591928251121</v>
       </c>
-      <c r="U24" t="n">
+      <c r="W24" t="n">
         <v>2073.12506159456</v>
       </c>
-      <c r="V24" t="n">
+      <c r="X24" t="n">
         <v>29</v>
       </c>
     </row>
